--- a/REGULAR/CCT/PEREY, AIRENE.xlsx
+++ b/REGULAR/CCT/PEREY, AIRENE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C05E774-E2F4-4872-8057-EC252D46E288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="329">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1006,12 +1005,27 @@
   </si>
   <si>
     <t>CCT</t>
+  </si>
+  <si>
+    <t>9/14,15,18-22,25,26/2023</t>
+  </si>
+  <si>
+    <t>9/27-28/2023</t>
+  </si>
+  <si>
+    <t>9/29 , 10/2-6/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/8,11/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1696,7 +1710,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1713,26 +1727,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K474" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K474" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K479" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K479"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2039,34 +2053,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K474"/>
+  <dimension ref="A2:M479"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A52" activePane="bottomLeft"/>
-      <selection activeCell="K8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A413" activePane="bottomLeft"/>
+      <selection activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="K436" sqref="K436"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2087,7 +2101,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2109,7 +2123,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2131,7 +2145,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2139,7 +2153,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2152,7 +2166,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2169,7 +2183,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2204,7 +2218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2213,7 +2227,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.700000000000045</v>
+        <v>76.700000000000045</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2223,12 +2237,16 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>114.79200000000003</v>
+        <v>112.79200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="44">
+        <f>SUM(E9,I9)</f>
+        <v>189.49200000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>58</v>
       </c>
@@ -2250,7 +2268,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>36549</v>
       </c>
@@ -2270,7 +2288,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>36557</v>
       </c>
@@ -2290,7 +2308,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>36586</v>
@@ -2311,7 +2329,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A83" si="0">EDATE(A13,1)</f>
         <v>36617</v>
@@ -2332,7 +2350,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>36647</v>
@@ -2353,7 +2371,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>36678</v>
@@ -2374,7 +2392,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>36708</v>
@@ -2395,7 +2413,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>36739</v>
@@ -2416,7 +2434,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>36770</v>
@@ -2437,7 +2455,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>36800</v>
@@ -2458,7 +2476,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>36831</v>
@@ -2485,7 +2503,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>36861</v>
@@ -2510,7 +2528,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
         <v>61</v>
       </c>
@@ -2528,7 +2546,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f>EDATE(A22,1)</f>
         <v>36892</v>
@@ -2549,7 +2567,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="0"/>
         <v>36923</v>
@@ -2570,7 +2588,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>36951</v>
@@ -2591,7 +2609,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>36982</v>
@@ -2612,7 +2630,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>37012</v>
@@ -2633,7 +2651,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -2654,7 +2672,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -2679,7 +2697,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -2700,7 +2718,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>37135</v>
@@ -2725,7 +2743,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>37165</v>
@@ -2752,7 +2770,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>66</v>
@@ -2772,7 +2790,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f>EDATE(A33,1)</f>
         <v>37196</v>
@@ -2799,7 +2817,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>68</v>
@@ -2819,7 +2837,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>EDATE(A35,1)</f>
         <v>37226</v>
@@ -2840,7 +2858,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="46" t="s">
         <v>64</v>
       </c>
@@ -2858,7 +2876,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f>EDATE(A37,1)</f>
         <v>37257</v>
@@ -2879,7 +2897,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="0"/>
         <v>37288</v>
@@ -2904,7 +2922,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>37316</v>
@@ -2925,7 +2943,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>37347</v>
@@ -2946,7 +2964,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="0"/>
         <v>37377</v>
@@ -2971,7 +2989,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f t="shared" si="0"/>
         <v>37408</v>
@@ -2992,7 +3010,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>37438</v>
@@ -3017,7 +3035,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>37469</v>
@@ -3038,7 +3056,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>37500</v>
@@ -3063,7 +3081,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>37530</v>
@@ -3084,7 +3102,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>37561</v>
@@ -3111,7 +3129,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f t="shared" si="0"/>
         <v>37591</v>
@@ -3132,7 +3150,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="46" t="s">
         <v>72</v>
       </c>
@@ -3150,7 +3168,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f>EDATE(A50,1)</f>
         <v>37622</v>
@@ -3171,7 +3189,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" si="0"/>
         <v>37653</v>
@@ -3192,7 +3210,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>37681</v>
@@ -3217,7 +3235,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <f t="shared" si="0"/>
         <v>37712</v>
@@ -3238,7 +3256,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f t="shared" si="0"/>
         <v>37742</v>
@@ -3259,7 +3277,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -3280,7 +3298,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -3301,7 +3319,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -3322,7 +3340,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -3343,7 +3361,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>37895</v>
@@ -3364,7 +3382,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f t="shared" si="0"/>
         <v>37926</v>
@@ -3385,7 +3403,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f t="shared" si="0"/>
         <v>37956</v>
@@ -3410,7 +3428,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="46" t="s">
         <v>74</v>
       </c>
@@ -3428,7 +3446,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f>EDATE(A63,1)</f>
         <v>37987</v>
@@ -3449,7 +3467,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" si="0"/>
         <v>38018</v>
@@ -3470,7 +3488,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="0"/>
         <v>38047</v>
@@ -3491,7 +3509,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="0"/>
         <v>38078</v>
@@ -3516,7 +3534,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <f t="shared" si="0"/>
         <v>38108</v>
@@ -3537,7 +3555,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f t="shared" si="0"/>
         <v>38139</v>
@@ -3558,7 +3576,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f t="shared" si="0"/>
         <v>38169</v>
@@ -3579,7 +3597,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f t="shared" si="0"/>
         <v>38200</v>
@@ -3600,7 +3618,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="0"/>
         <v>38231</v>
@@ -3621,7 +3639,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f t="shared" si="0"/>
         <v>38261</v>
@@ -3642,7 +3660,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f>EDATE(A74,1)</f>
         <v>38292</v>
@@ -3663,7 +3681,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f t="shared" si="0"/>
         <v>38322</v>
@@ -3688,7 +3706,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="46" t="s">
         <v>75</v>
       </c>
@@ -3706,7 +3724,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f>EDATE(A76,1)</f>
         <v>38353</v>
@@ -3727,7 +3745,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" si="0"/>
         <v>38384</v>
@@ -3748,7 +3766,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="0"/>
         <v>38412</v>
@@ -3769,7 +3787,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="0"/>
         <v>38443</v>
@@ -3790,7 +3808,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f t="shared" si="0"/>
         <v>38473</v>
@@ -3811,7 +3829,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" si="0"/>
         <v>38504</v>
@@ -3836,7 +3854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>46</v>
@@ -3858,7 +3876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f>EDATE(A83,1)</f>
         <v>38534</v>
@@ -3879,7 +3897,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f t="shared" ref="A86:A98" si="1">EDATE(A85,1)</f>
         <v>38565</v>
@@ -3900,7 +3918,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -3921,7 +3939,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -3948,7 +3966,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f t="shared" si="1"/>
         <v>38657</v>
@@ -3969,7 +3987,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f t="shared" si="1"/>
         <v>38687</v>
@@ -3990,7 +4008,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="46" t="s">
         <v>80</v>
       </c>
@@ -4008,7 +4026,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f>EDATE(A90,1)</f>
         <v>38718</v>
@@ -4029,7 +4047,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" si="1"/>
         <v>38749</v>
@@ -4050,7 +4068,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f t="shared" si="1"/>
         <v>38777</v>
@@ -4071,7 +4089,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f t="shared" si="1"/>
         <v>38808</v>
@@ -4092,7 +4110,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="1"/>
         <v>38838</v>
@@ -4113,7 +4131,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f t="shared" si="1"/>
         <v>38869</v>
@@ -4134,7 +4152,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f t="shared" si="1"/>
         <v>38899</v>
@@ -4159,7 +4177,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>84</v>
@@ -4179,7 +4197,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f>EDATE(A98,1)</f>
         <v>38930</v>
@@ -4204,7 +4222,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <f>EDATE(A100,1)</f>
         <v>38961</v>
@@ -4231,7 +4249,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f t="shared" ref="A102:A120" si="2">EDATE(A101,1)</f>
         <v>38991</v>
@@ -4258,7 +4276,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <f t="shared" si="2"/>
         <v>39022</v>
@@ -4283,7 +4301,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f t="shared" si="2"/>
         <v>39052</v>
@@ -4308,7 +4326,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="46" t="s">
         <v>83</v>
       </c>
@@ -4326,7 +4344,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f>EDATE(A104,1)</f>
         <v>39083</v>
@@ -4351,7 +4369,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f t="shared" si="2"/>
         <v>39114</v>
@@ -4378,7 +4396,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>91</v>
@@ -4398,7 +4416,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f>EDATE(A107,1)</f>
         <v>39142</v>
@@ -4423,7 +4441,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f t="shared" si="2"/>
         <v>39173</v>
@@ -4448,7 +4466,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f t="shared" si="2"/>
         <v>39203</v>
@@ -4475,7 +4493,7 @@
         <v>39360</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>94</v>
@@ -4495,7 +4513,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="47"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f>EDATE(A111,1)</f>
         <v>39234</v>
@@ -4520,7 +4538,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f t="shared" si="2"/>
         <v>39264</v>
@@ -4545,7 +4563,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>96</v>
@@ -4565,7 +4583,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f>EDATE(A114,1)</f>
         <v>39295</v>
@@ -4590,7 +4608,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -4611,7 +4629,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f t="shared" si="2"/>
         <v>39356</v>
@@ -4638,7 +4656,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f t="shared" si="2"/>
         <v>39387</v>
@@ -4665,7 +4683,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f t="shared" si="2"/>
         <v>39417</v>
@@ -4686,7 +4704,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="46" t="s">
         <v>104</v>
       </c>
@@ -4704,7 +4722,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f>EDATE(A120,1)</f>
         <v>39448</v>
@@ -4725,7 +4743,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f>EDATE(A122,1)</f>
         <v>39479</v>
@@ -4746,7 +4764,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <f t="shared" ref="A124:A134" si="3">EDATE(A123,1)</f>
         <v>39508</v>
@@ -4767,7 +4785,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f t="shared" si="3"/>
         <v>39539</v>
@@ -4788,7 +4806,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <f>EDATE(A125,1)</f>
         <v>39569</v>
@@ -4813,7 +4831,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>47</v>
@@ -4833,7 +4851,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f>EDATE(A126,1)</f>
         <v>39600</v>
@@ -4854,7 +4872,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f t="shared" si="3"/>
         <v>39630</v>
@@ -4875,7 +4893,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <f t="shared" si="3"/>
         <v>39661</v>
@@ -4896,7 +4914,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f t="shared" si="3"/>
         <v>39692</v>
@@ -4923,7 +4941,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>45</v>
@@ -4945,7 +4963,7 @@
         <v>39638</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f>EDATE(A131,1)</f>
         <v>39722</v>
@@ -4972,7 +4990,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f t="shared" si="3"/>
         <v>39753</v>
@@ -4997,7 +5015,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f>EDATE(A134,1)</f>
         <v>39783</v>
@@ -5022,7 +5040,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="46" t="s">
         <v>111</v>
       </c>
@@ -5040,7 +5058,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f>EDATE(A135,1)</f>
         <v>39814</v>
@@ -5067,7 +5085,7 @@
         <v>40148</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>112</v>
@@ -5087,7 +5105,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="47"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f>EDATE(A137,1)</f>
         <v>39845</v>
@@ -5114,7 +5132,7 @@
         <v>40088</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>113</v>
@@ -5134,7 +5152,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="47"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <f>EDATE(A139,1)</f>
         <v>39873</v>
@@ -5161,7 +5179,7 @@
         <v>40120</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>114</v>
@@ -5181,7 +5199,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="47"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <f>EDATE(A141,1)</f>
         <v>39904</v>
@@ -5208,7 +5226,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>117</v>
@@ -5228,7 +5246,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f>EDATE(A143,1)</f>
         <v>39934</v>
@@ -5255,7 +5273,7 @@
         <v>40030</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>45</v>
@@ -5277,7 +5295,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f>EDATE(A145,1)</f>
         <v>39965</v>
@@ -5302,7 +5320,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <f>EDATE(A147,1)</f>
         <v>39995</v>
@@ -5327,7 +5345,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>45</v>
@@ -5347,7 +5365,7 @@
         <v>39971</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>45</v>
@@ -5367,7 +5385,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>66</v>
@@ -5387,7 +5405,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <f>EDATE(A148,1)</f>
         <v>40026</v>
@@ -5414,7 +5432,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <f t="shared" ref="A153:A157" si="4">EDATE(A152,1)</f>
         <v>40057</v>
@@ -5439,7 +5457,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>45</v>
@@ -5461,7 +5479,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>40087</v>
@@ -5486,7 +5504,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <f t="shared" si="4"/>
         <v>40118</v>
@@ -5511,7 +5529,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <f t="shared" si="4"/>
         <v>40148</v>
@@ -5536,7 +5554,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="46" t="s">
         <v>127</v>
       </c>
@@ -5554,7 +5572,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f>EDATE(A157,1)</f>
         <v>40179</v>
@@ -5581,7 +5599,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>45</v>
@@ -5603,7 +5621,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>204</v>
@@ -5623,7 +5641,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <f>EDATE(A159,1)</f>
         <v>40210</v>
@@ -5650,7 +5668,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>295</v>
@@ -5670,7 +5688,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <f>EDATE(A162,1)</f>
         <v>40238</v>
@@ -5697,7 +5715,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>128</v>
@@ -5717,7 +5735,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <f>EDATE(A164,1)</f>
         <v>40269</v>
@@ -5742,7 +5760,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <f t="shared" ref="A167:A255" si="5">EDATE(A166,1)</f>
         <v>40299</v>
@@ -5769,7 +5787,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>131</v>
@@ -5789,7 +5807,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <f>EDATE(A167,1)</f>
         <v>40330</v>
@@ -5814,7 +5832,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>45</v>
@@ -5836,7 +5854,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>47</v>
@@ -5858,7 +5876,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <f>EDATE(A169,1)</f>
         <v>40360</v>
@@ -5883,7 +5901,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <f t="shared" si="5"/>
         <v>40391</v>
@@ -5910,7 +5928,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>137</v>
@@ -5930,7 +5948,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f>EDATE(A173,1)</f>
         <v>40422</v>
@@ -5957,7 +5975,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>47</v>
@@ -5977,7 +5995,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <f>EDATE(A175,1)</f>
         <v>40452</v>
@@ -5998,7 +6016,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <f t="shared" si="5"/>
         <v>40483</v>
@@ -6019,7 +6037,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <f t="shared" si="5"/>
         <v>40513</v>
@@ -6044,7 +6062,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="46" t="s">
         <v>141</v>
       </c>
@@ -6062,7 +6080,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <f>EDATE(A179,1)</f>
         <v>40544</v>
@@ -6087,7 +6105,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <f t="shared" si="5"/>
         <v>40575</v>
@@ -6114,7 +6132,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>143</v>
@@ -6134,7 +6152,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <f>EDATE(A182,1)</f>
         <v>40603</v>
@@ -6161,7 +6179,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>298</v>
@@ -6181,7 +6199,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <f>EDATE(A184,1)</f>
         <v>40634</v>
@@ -6202,7 +6220,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <f t="shared" si="5"/>
         <v>40664</v>
@@ -6227,7 +6245,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <f>EDATE(A187,1)</f>
         <v>40695</v>
@@ -6252,7 +6270,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>45</v>
@@ -6274,7 +6292,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <f>EDATE(A188,1)</f>
         <v>40725</v>
@@ -6299,7 +6317,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <f t="shared" si="5"/>
         <v>40756</v>
@@ -6320,7 +6338,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <f t="shared" si="5"/>
         <v>40787</v>
@@ -6345,7 +6363,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>45</v>
@@ -6367,7 +6385,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <f>EDATE(A192,1)</f>
         <v>40817</v>
@@ -6392,7 +6410,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <f t="shared" si="5"/>
         <v>40848</v>
@@ -6413,7 +6431,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f t="shared" si="5"/>
         <v>40878</v>
@@ -6440,7 +6458,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>50</v>
@@ -6460,7 +6478,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="46" t="s">
         <v>144</v>
       </c>
@@ -6478,7 +6496,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <f>EDATE(A196,1)</f>
         <v>40909</v>
@@ -6505,7 +6523,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <f t="shared" si="5"/>
         <v>40940</v>
@@ -6532,7 +6550,7 @@
         <v>41062</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>47</v>
@@ -6552,7 +6570,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <f>EDATE(A200,1)</f>
         <v>40969</v>
@@ -6577,7 +6595,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>48</v>
@@ -6599,7 +6617,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <f>EDATE(A202,1)</f>
         <v>41000</v>
@@ -6626,7 +6644,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <f t="shared" si="5"/>
         <v>41030</v>
@@ -6653,7 +6671,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <f t="shared" si="5"/>
         <v>41061</v>
@@ -6680,7 +6698,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>47</v>
@@ -6700,7 +6718,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>45</v>
@@ -6722,7 +6740,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>47</v>
@@ -6742,7 +6760,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>159</v>
@@ -6762,7 +6780,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <f>EDATE(A206,1)</f>
         <v>41091</v>
@@ -6787,7 +6805,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>164</v>
@@ -6807,7 +6825,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <f>EDATE(A211,1)</f>
         <v>41122</v>
@@ -6834,7 +6852,7 @@
         <v>40976</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>165</v>
@@ -6856,7 +6874,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <f>EDATE(A213,1)</f>
         <v>41153</v>
@@ -6883,7 +6901,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <f t="shared" si="5"/>
         <v>41183</v>
@@ -6904,7 +6922,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <f t="shared" si="5"/>
         <v>41214</v>
@@ -6931,7 +6949,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <f t="shared" si="5"/>
         <v>41244</v>
@@ -6958,7 +6976,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>136</v>
@@ -6980,7 +6998,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="46" t="s">
         <v>171</v>
       </c>
@@ -6998,7 +7016,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <f>EDATE(A218,1)</f>
         <v>41275</v>
@@ -7019,7 +7037,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <f t="shared" si="5"/>
         <v>41306</v>
@@ -7040,7 +7058,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <f t="shared" si="5"/>
         <v>41334</v>
@@ -7065,7 +7083,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <f t="shared" si="5"/>
         <v>41365</v>
@@ -7092,7 +7110,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <f t="shared" si="5"/>
         <v>41395</v>
@@ -7113,7 +7131,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <f t="shared" si="5"/>
         <v>41426</v>
@@ -7138,7 +7156,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>47</v>
@@ -7158,7 +7176,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <f>EDATE(A226,1)</f>
         <v>41456</v>
@@ -7185,7 +7203,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <f t="shared" si="5"/>
         <v>41487</v>
@@ -7206,7 +7224,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <f t="shared" si="5"/>
         <v>41518</v>
@@ -7227,7 +7245,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <f t="shared" si="5"/>
         <v>41548</v>
@@ -7254,7 +7272,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f t="shared" si="5"/>
         <v>41579</v>
@@ -7275,7 +7293,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <f t="shared" si="5"/>
         <v>41609</v>
@@ -7296,7 +7314,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="46" t="s">
         <v>178</v>
       </c>
@@ -7314,7 +7332,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <f>EDATE(A233,1)</f>
         <v>41640</v>
@@ -7335,7 +7353,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f t="shared" si="5"/>
         <v>41671</v>
@@ -7356,7 +7374,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <f t="shared" si="5"/>
         <v>41699</v>
@@ -7377,7 +7395,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <f t="shared" si="5"/>
         <v>41730</v>
@@ -7398,7 +7416,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <f t="shared" si="5"/>
         <v>41760</v>
@@ -7423,7 +7441,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>47</v>
@@ -7443,7 +7461,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>47</v>
@@ -7463,7 +7481,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <f>EDATE(A239,1)</f>
         <v>41791</v>
@@ -7484,7 +7502,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <f t="shared" si="5"/>
         <v>41821</v>
@@ -7505,7 +7523,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <f t="shared" si="5"/>
         <v>41852</v>
@@ -7526,7 +7544,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <f t="shared" si="5"/>
         <v>41883</v>
@@ -7551,7 +7569,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <f t="shared" si="5"/>
         <v>41913</v>
@@ -7576,7 +7594,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <f t="shared" si="5"/>
         <v>41944</v>
@@ -7603,7 +7621,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>183</v>
@@ -7625,7 +7643,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <f>EDATE(A247,1)</f>
         <v>41974</v>
@@ -7646,7 +7664,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="46" t="s">
         <v>186</v>
       </c>
@@ -7661,7 +7679,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <f>EDATE(A249,1)</f>
         <v>42005</v>
@@ -7682,7 +7700,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <f t="shared" si="5"/>
         <v>42036</v>
@@ -7703,7 +7721,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <f t="shared" si="5"/>
         <v>42064</v>
@@ -7730,7 +7748,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f t="shared" si="5"/>
         <v>42095</v>
@@ -7757,7 +7775,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <f t="shared" si="5"/>
         <v>42125</v>
@@ -7784,7 +7802,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <f t="shared" ref="A256:A321" si="6">EDATE(A255,1)</f>
         <v>42156</v>
@@ -7809,7 +7827,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <f t="shared" si="6"/>
         <v>42186</v>
@@ -7830,7 +7848,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <f t="shared" si="6"/>
         <v>42217</v>
@@ -7857,7 +7875,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>193</v>
@@ -7877,7 +7895,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <f>EDATE(A258,1)</f>
         <v>42248</v>
@@ -7902,7 +7920,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <f t="shared" si="6"/>
         <v>42278</v>
@@ -7927,7 +7945,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <f t="shared" si="6"/>
         <v>42309</v>
@@ -7954,7 +7972,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>195</v>
@@ -7974,7 +7992,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="47"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <f>EDATE(A262,1)</f>
         <v>42339</v>
@@ -7999,7 +8017,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="46" t="s">
         <v>197</v>
       </c>
@@ -8017,7 +8035,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <f>EDATE(A264,1)</f>
         <v>42370</v>
@@ -8044,7 +8062,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>48</v>
@@ -8066,7 +8084,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>199</v>
@@ -8086,7 +8104,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <f>EDATE(A266,1)</f>
         <v>42401</v>
@@ -8111,7 +8129,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>201</v>
@@ -8131,7 +8149,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <f>EDATE(A269,1)</f>
         <v>42430</v>
@@ -8158,7 +8176,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>48</v>
@@ -8180,7 +8198,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>204</v>
@@ -8200,7 +8218,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <f>EDATE(A271,1)</f>
         <v>42461</v>
@@ -8227,7 +8245,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>206</v>
@@ -8247,7 +8265,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <f>EDATE(A274,1)</f>
         <v>42491</v>
@@ -8274,7 +8292,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>47</v>
@@ -8294,7 +8312,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>45</v>
@@ -8316,7 +8334,7 @@
         <v>42588</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>209</v>
@@ -8336,7 +8354,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="47"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f>EDATE(A276,1)</f>
         <v>42522</v>
@@ -8361,7 +8379,7 @@
         <v>42497</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>210</v>
@@ -8381,7 +8399,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>45</v>
@@ -8403,7 +8421,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <f>EDATE(A280,1)</f>
         <v>42552</v>
@@ -8428,7 +8446,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f t="shared" si="6"/>
         <v>42583</v>
@@ -8455,7 +8473,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>45</v>
@@ -8477,7 +8495,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>215</v>
@@ -8497,7 +8515,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <f>EDATE(A284,1)</f>
         <v>42614</v>
@@ -8524,7 +8542,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <f t="shared" si="6"/>
         <v>42644</v>
@@ -8551,7 +8569,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>45</v>
@@ -8573,7 +8591,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>217</v>
@@ -8593,7 +8611,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <f>EDATE(A288,1)</f>
         <v>42675</v>
@@ -8620,7 +8638,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>137</v>
@@ -8640,7 +8658,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <f>EDATE(A291,1)</f>
         <v>42705</v>
@@ -8667,7 +8685,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>48</v>
@@ -8689,7 +8707,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>223</v>
@@ -8709,7 +8727,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="46" t="s">
         <v>224</v>
       </c>
@@ -8727,7 +8745,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f>EDATE(A293,1)</f>
         <v>42736</v>
@@ -8754,7 +8772,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>48</v>
@@ -8776,7 +8794,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>225</v>
@@ -8796,7 +8814,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <f>EDATE(A297,1)</f>
         <v>42767</v>
@@ -8823,7 +8841,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>48</v>
@@ -8845,7 +8863,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>45</v>
@@ -8867,7 +8885,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <f>EDATE(A300,1)</f>
         <v>42795</v>
@@ -8894,7 +8912,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <f t="shared" si="6"/>
         <v>42826</v>
@@ -8919,7 +8937,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>231</v>
@@ -8941,7 +8959,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>45</v>
@@ -8963,7 +8981,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>45</v>
@@ -8985,7 +9003,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>46</v>
@@ -9007,7 +9025,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f>EDATE(A304,1)</f>
         <v>42856</v>
@@ -9034,7 +9052,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>48</v>
@@ -9056,7 +9074,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>236</v>
@@ -9076,7 +9094,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <f>EDATE(A309,1)</f>
         <v>42887</v>
@@ -9097,7 +9115,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f>EDATE(A312,1)</f>
         <v>42917</v>
@@ -9120,7 +9138,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>46</v>
@@ -9142,7 +9160,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>45</v>
@@ -9164,7 +9182,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <f>EDATE(A313,1)</f>
         <v>42948</v>
@@ -9185,7 +9203,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <f t="shared" si="6"/>
         <v>42979</v>
@@ -9212,7 +9230,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>47</v>
@@ -9232,7 +9250,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>48</v>
@@ -9254,7 +9272,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <f>EDATE(A317,1)</f>
         <v>43009</v>
@@ -9275,7 +9293,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <f t="shared" si="6"/>
         <v>43040</v>
@@ -9302,7 +9320,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>45</v>
@@ -9324,7 +9342,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <f>EDATE(A321,1)</f>
         <v>43070</v>
@@ -9351,7 +9369,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>48</v>
@@ -9373,7 +9391,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>48</v>
@@ -9395,7 +9413,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>136</v>
@@ -9417,7 +9435,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>45</v>
@@ -9439,7 +9457,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="46" t="s">
         <v>44</v>
       </c>
@@ -9454,7 +9472,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="39">
         <v>43101</v>
       </c>
@@ -9474,7 +9492,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="39">
         <v>43132</v>
       </c>
@@ -9500,7 +9518,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="39">
         <v>43160</v>
       </c>
@@ -9526,7 +9544,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="39">
         <v>43191</v>
       </c>
@@ -9552,7 +9570,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="39">
         <v>43221</v>
       </c>
@@ -9578,7 +9596,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="39"/>
       <c r="B334" s="15" t="s">
         <v>47</v>
@@ -9598,7 +9616,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="39">
         <v>43252</v>
       </c>
@@ -9624,7 +9642,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="39"/>
       <c r="B336" s="15" t="s">
         <v>47</v>
@@ -9644,7 +9662,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="39">
         <v>43282</v>
       </c>
@@ -9670,7 +9688,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="39">
         <v>43313</v>
       </c>
@@ -9696,7 +9714,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="39"/>
       <c r="B339" s="20" t="s">
         <v>47</v>
@@ -9716,7 +9734,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="39">
         <v>43344</v>
       </c>
@@ -9736,7 +9754,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="39">
         <v>43374</v>
       </c>
@@ -9762,7 +9780,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="39">
         <v>43405</v>
       </c>
@@ -9782,7 +9800,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="39">
         <v>43435</v>
       </c>
@@ -9808,7 +9826,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="39"/>
       <c r="B344" s="20" t="s">
         <v>50</v>
@@ -9828,7 +9846,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="46" t="s">
         <v>49</v>
       </c>
@@ -9843,7 +9861,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="39">
         <v>43466</v>
       </c>
@@ -9869,7 +9887,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="39"/>
       <c r="B347" s="20" t="s">
         <v>52</v>
@@ -9891,7 +9909,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="39"/>
       <c r="B348" s="20" t="s">
         <v>53</v>
@@ -9913,7 +9931,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="39">
         <v>43497</v>
       </c>
@@ -9933,7 +9951,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="39">
         <v>43525</v>
       </c>
@@ -9959,7 +9977,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="39">
         <v>43556</v>
       </c>
@@ -9985,7 +10003,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="39">
         <v>43586</v>
       </c>
@@ -10005,7 +10023,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="39">
         <v>43617</v>
       </c>
@@ -10031,7 +10049,7 @@
         <v>43622</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="39"/>
       <c r="B354" s="20" t="s">
         <v>47</v>
@@ -10051,7 +10069,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="39"/>
       <c r="B355" s="20" t="s">
         <v>47</v>
@@ -10071,7 +10089,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="39">
         <v>43647</v>
       </c>
@@ -10097,7 +10115,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="39">
         <v>43678</v>
       </c>
@@ -10123,7 +10141,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="39">
         <v>43709</v>
       </c>
@@ -10149,7 +10167,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="39"/>
       <c r="B359" s="20" t="s">
         <v>45</v>
@@ -10171,7 +10189,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="39">
         <v>43739</v>
       </c>
@@ -10197,7 +10215,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="39"/>
       <c r="B361" s="20" t="s">
         <v>45</v>
@@ -10219,7 +10237,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39">
         <v>43770</v>
       </c>
@@ -10245,7 +10263,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="39">
         <v>43800</v>
       </c>
@@ -10271,7 +10289,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="46" t="s">
         <v>54</v>
       </c>
@@ -10286,7 +10304,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="39">
         <v>43831</v>
       </c>
@@ -10312,7 +10330,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="39"/>
       <c r="B366" s="20" t="s">
         <v>46</v>
@@ -10334,7 +10352,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="39">
         <v>43862</v>
       </c>
@@ -10360,7 +10378,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="39">
         <v>43891</v>
       </c>
@@ -10380,7 +10398,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="39">
         <v>43922</v>
       </c>
@@ -10400,7 +10418,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="39">
         <v>43952</v>
       </c>
@@ -10420,7 +10438,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="39">
         <v>43983</v>
       </c>
@@ -10440,7 +10458,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="39">
         <v>44013</v>
       </c>
@@ -10464,7 +10482,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="39"/>
       <c r="B373" s="20" t="s">
         <v>45</v>
@@ -10486,7 +10504,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="39">
         <v>44044</v>
       </c>
@@ -10506,7 +10524,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="39">
         <v>44075</v>
       </c>
@@ -10532,7 +10550,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="39">
         <v>44105</v>
       </c>
@@ -10552,7 +10570,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="39">
         <v>44136</v>
       </c>
@@ -10572,7 +10590,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="39">
         <v>44166</v>
       </c>
@@ -10596,7 +10614,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="39"/>
       <c r="B379" s="20" t="s">
         <v>51</v>
@@ -10618,7 +10636,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="46" t="s">
         <v>55</v>
       </c>
@@ -10636,7 +10654,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="39">
         <v>44197</v>
       </c>
@@ -10662,7 +10680,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="39">
         <v>44228</v>
       </c>
@@ -10682,7 +10700,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="39">
         <v>44256</v>
       </c>
@@ -10708,7 +10726,7 @@
         <v>44472</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="39">
         <v>44287</v>
       </c>
@@ -10728,7 +10746,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39">
         <v>44317</v>
       </c>
@@ -10748,7 +10766,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="39">
         <v>44348</v>
       </c>
@@ -10774,7 +10792,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="39"/>
       <c r="B387" s="20" t="s">
         <v>47</v>
@@ -10794,7 +10812,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="39">
         <v>44378</v>
       </c>
@@ -10820,7 +10838,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="39">
         <v>44409</v>
       </c>
@@ -10840,7 +10858,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39">
         <v>44440</v>
       </c>
@@ -10860,7 +10878,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="39">
         <v>44470</v>
       </c>
@@ -10886,7 +10904,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="39">
         <v>44501</v>
       </c>
@@ -10906,7 +10924,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="39">
         <v>44531</v>
       </c>
@@ -10932,7 +10950,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="46" t="s">
         <v>56</v>
       </c>
@@ -10947,7 +10965,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="39">
         <v>44562</v>
       </c>
@@ -10967,7 +10985,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="39">
         <v>44593</v>
       </c>
@@ -10987,7 +11005,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="39">
         <v>44621</v>
       </c>
@@ -11007,7 +11025,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="39">
         <v>44652</v>
       </c>
@@ -11033,7 +11051,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="39">
         <v>44682</v>
       </c>
@@ -11057,7 +11075,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="39"/>
       <c r="B400" s="20" t="s">
         <v>47</v>
@@ -11077,7 +11095,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="39"/>
       <c r="B401" s="20" t="s">
         <v>135</v>
@@ -11097,7 +11115,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="47"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="39">
         <v>44713</v>
       </c>
@@ -11121,7 +11139,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="39">
         <v>44743</v>
       </c>
@@ -11145,7 +11163,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="39">
         <v>44774</v>
       </c>
@@ -11171,7 +11189,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="39"/>
       <c r="B405" s="20" t="s">
         <v>318</v>
@@ -11191,7 +11209,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="39">
         <v>44805</v>
       </c>
@@ -11217,7 +11235,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="39"/>
       <c r="B407" s="20" t="s">
         <v>316</v>
@@ -11237,7 +11255,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="47"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="39">
         <v>44835</v>
       </c>
@@ -11261,7 +11279,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="39"/>
       <c r="B409" s="20" t="s">
         <v>45</v>
@@ -11283,7 +11301,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="39"/>
       <c r="B410" s="20" t="s">
         <v>45</v>
@@ -11305,7 +11323,7 @@
         <v>44860</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="39"/>
       <c r="B411" s="20" t="s">
         <v>314</v>
@@ -11325,7 +11343,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="47"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="39">
         <v>44866</v>
       </c>
@@ -11349,7 +11367,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="39">
         <v>44896</v>
       </c>
@@ -11375,7 +11393,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="39"/>
       <c r="B414" s="20" t="s">
         <v>313</v>
@@ -11395,7 +11413,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="46" t="s">
         <v>57</v>
       </c>
@@ -11413,7 +11431,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="39">
         <v>44927</v>
       </c>
@@ -11437,7 +11455,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="39"/>
       <c r="B417" s="20" t="s">
         <v>45</v>
@@ -11459,7 +11477,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="39">
         <v>44958</v>
       </c>
@@ -11485,7 +11503,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="39"/>
       <c r="B419" s="20" t="s">
         <v>48</v>
@@ -11507,7 +11525,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="39">
         <v>44986</v>
       </c>
@@ -11533,7 +11551,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="39">
         <v>45017</v>
       </c>
@@ -11559,7 +11577,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="39">
         <v>45047</v>
       </c>
@@ -11585,7 +11603,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="39">
         <v>45078</v>
       </c>
@@ -11611,7 +11629,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39"/>
       <c r="B424" s="20" t="s">
         <v>48</v>
@@ -11633,7 +11651,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="39"/>
       <c r="B425" s="20" t="s">
         <v>47</v>
@@ -11653,7 +11671,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="39">
         <v>45108</v>
       </c>
@@ -11679,7 +11697,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="39"/>
       <c r="B427" s="20" t="s">
         <v>48</v>
@@ -11701,20 +11719,22 @@
         <v>311</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="39">
         <v>45139</v>
       </c>
       <c r="B428" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C428" s="13"/>
+      <c r="C428" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D428" s="38"/>
       <c r="E428" s="9"/>
       <c r="F428" s="20"/>
-      <c r="G428" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G428" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H428" s="38">
         <v>1</v>
@@ -11725,29 +11745,37 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="39">
         <v>45170</v>
       </c>
-      <c r="B429" s="20"/>
-      <c r="C429" s="13"/>
-      <c r="D429" s="38"/>
+      <c r="B429" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C429" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D429" s="38">
+        <v>9</v>
+      </c>
       <c r="E429" s="9"/>
       <c r="F429" s="20"/>
-      <c r="G429" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G429" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H429" s="38"/>
       <c r="I429" s="9"/>
       <c r="J429" s="11"/>
-      <c r="K429" s="20"/>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A430" s="39">
-        <v>45200</v>
-      </c>
-      <c r="B430" s="20"/>
+      <c r="K429" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A430" s="39"/>
+      <c r="B430" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C430" s="13"/>
       <c r="D430" s="38"/>
       <c r="E430" s="9"/>
@@ -11756,18 +11784,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H430" s="38"/>
+      <c r="H430" s="38">
+        <v>2</v>
+      </c>
       <c r="I430" s="9"/>
       <c r="J430" s="11"/>
-      <c r="K430" s="20"/>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A431" s="39">
-        <v>45231</v>
-      </c>
-      <c r="B431" s="20"/>
+      <c r="K430" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A431" s="39"/>
+      <c r="B431" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C431" s="13"/>
-      <c r="D431" s="38"/>
+      <c r="D431" s="38">
+        <v>6</v>
+      </c>
       <c r="E431" s="9"/>
       <c r="F431" s="20"/>
       <c r="G431" s="13" t="str">
@@ -11777,49 +11811,63 @@
       <c r="H431" s="38"/>
       <c r="I431" s="9"/>
       <c r="J431" s="11"/>
-      <c r="K431" s="20"/>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K431" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="39">
-        <v>45261</v>
-      </c>
-      <c r="B432" s="20"/>
-      <c r="C432" s="13"/>
+        <v>45200</v>
+      </c>
+      <c r="B432" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C432" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D432" s="38"/>
       <c r="E432" s="9"/>
       <c r="F432" s="20"/>
-      <c r="G432" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H432" s="38"/>
+      <c r="G432" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H432" s="38">
+        <v>1</v>
+      </c>
       <c r="I432" s="9"/>
       <c r="J432" s="11"/>
-      <c r="K432" s="20"/>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K432" s="47">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="39">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B433" s="20"/>
-      <c r="C433" s="13"/>
+      <c r="C433" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D433" s="38"/>
       <c r="E433" s="9"/>
       <c r="F433" s="20"/>
-      <c r="G433" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G433" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H433" s="38"/>
       <c r="I433" s="9"/>
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="39">
-        <v>45323</v>
-      </c>
-      <c r="B434" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B434" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C434" s="13"/>
       <c r="D434" s="38"/>
       <c r="E434" s="9"/>
@@ -11828,16 +11876,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H434" s="38"/>
+      <c r="H434" s="38">
+        <v>1</v>
+      </c>
       <c r="I434" s="9"/>
       <c r="J434" s="11"/>
-      <c r="K434" s="20"/>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A435" s="39">
-        <v>45352</v>
-      </c>
-      <c r="B435" s="20"/>
+      <c r="K434" s="47">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A435" s="39"/>
+      <c r="B435" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C435" s="13"/>
       <c r="D435" s="38"/>
       <c r="E435" s="9"/>
@@ -11846,16 +11898,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H435" s="38"/>
+      <c r="H435" s="38">
+        <v>1</v>
+      </c>
       <c r="I435" s="9"/>
       <c r="J435" s="11"/>
-      <c r="K435" s="20"/>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A436" s="39">
-        <v>45383</v>
-      </c>
-      <c r="B436" s="20"/>
+      <c r="K435" s="47">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A436" s="39"/>
+      <c r="B436" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C436" s="13"/>
       <c r="D436" s="38"/>
       <c r="E436" s="9"/>
@@ -11864,14 +11920,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H436" s="38"/>
+      <c r="H436" s="38">
+        <v>2</v>
+      </c>
       <c r="I436" s="9"/>
       <c r="J436" s="11"/>
-      <c r="K436" s="20"/>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A437" s="39">
-        <v>45413</v>
+      <c r="K436" s="47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A437" s="46" t="s">
+        <v>327</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11885,11 +11945,11 @@
       <c r="H437" s="38"/>
       <c r="I437" s="9"/>
       <c r="J437" s="11"/>
-      <c r="K437" s="20"/>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K437" s="47"/>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="39">
-        <v>45444</v>
+        <v>45292</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11905,9 +11965,9 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11923,9 +11983,9 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="39">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11941,9 +12001,9 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="39">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11959,9 +12019,9 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="39">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11977,9 +12037,9 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="39">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11995,9 +12055,9 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="39">
-        <v>45627</v>
+        <v>45474</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -12013,9 +12073,9 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39">
-        <v>45658</v>
+        <v>45505</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -12031,9 +12091,9 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="39">
-        <v>45689</v>
+        <v>45536</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -12049,9 +12109,9 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="39">
-        <v>45717</v>
+        <v>45566</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -12067,9 +12127,9 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39">
-        <v>45748</v>
+        <v>45597</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -12085,9 +12145,9 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39">
-        <v>45778</v>
+        <v>45627</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -12103,9 +12163,9 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="39">
-        <v>45809</v>
+        <v>45658</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -12121,9 +12181,9 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="39">
-        <v>45839</v>
+        <v>45689</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -12139,9 +12199,9 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="39">
-        <v>45870</v>
+        <v>45717</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -12157,9 +12217,9 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="39">
-        <v>45901</v>
+        <v>45748</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -12175,9 +12235,9 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="39">
-        <v>45931</v>
+        <v>45778</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -12193,9 +12253,9 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="39">
-        <v>45962</v>
+        <v>45809</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -12211,9 +12271,9 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="39">
-        <v>45992</v>
+        <v>45839</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -12229,9 +12289,9 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="39">
-        <v>46023</v>
+        <v>45870</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -12247,9 +12307,9 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="39">
-        <v>46054</v>
+        <v>45901</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -12265,9 +12325,9 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="39">
-        <v>46082</v>
+        <v>45931</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -12283,9 +12343,9 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="39">
-        <v>46113</v>
+        <v>45962</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -12301,9 +12361,9 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="39">
-        <v>46143</v>
+        <v>45992</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -12319,9 +12379,9 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="39">
-        <v>46174</v>
+        <v>46023</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -12337,9 +12397,9 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="39">
-        <v>46204</v>
+        <v>46054</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -12355,9 +12415,9 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="39">
-        <v>46235</v>
+        <v>46082</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -12373,9 +12433,9 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="39">
-        <v>46266</v>
+        <v>46113</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -12391,9 +12451,9 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="39">
-        <v>46296</v>
+        <v>46143</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -12409,9 +12469,9 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="39">
-        <v>46327</v>
+        <v>46174</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -12427,16 +12487,16 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="39">
-        <v>46357</v>
+        <v>46204</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
       <c r="D468" s="38"/>
       <c r="E468" s="9"/>
-      <c r="F468" s="15"/>
-      <c r="G468" s="40" t="str">
+      <c r="F468" s="20"/>
+      <c r="G468" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -12445,9 +12505,9 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="39">
-        <v>46388</v>
+        <v>46235</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -12463,9 +12523,9 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="39">
-        <v>46419</v>
+        <v>46266</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -12481,9 +12541,9 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="39">
-        <v>46447</v>
+        <v>46296</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -12499,9 +12559,9 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="39">
-        <v>46478</v>
+        <v>46327</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -12517,16 +12577,16 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="39">
-        <v>46508</v>
+        <v>46357</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
       <c r="D473" s="38"/>
       <c r="E473" s="9"/>
-      <c r="F473" s="20"/>
-      <c r="G473" s="13" t="str">
+      <c r="F473" s="15"/>
+      <c r="G473" s="40" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -12535,8 +12595,10 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A474" s="39"/>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A474" s="39">
+        <v>46388</v>
+      </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
       <c r="D474" s="38"/>
@@ -12546,10 +12608,98 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H474" s="41"/>
+      <c r="H474" s="38"/>
       <c r="I474" s="9"/>
-      <c r="J474" s="12"/>
-      <c r="K474" s="15"/>
+      <c r="J474" s="11"/>
+      <c r="K474" s="20"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" s="39">
+        <v>46419</v>
+      </c>
+      <c r="B475" s="20"/>
+      <c r="C475" s="13"/>
+      <c r="D475" s="38"/>
+      <c r="E475" s="9"/>
+      <c r="F475" s="20"/>
+      <c r="G475" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H475" s="38"/>
+      <c r="I475" s="9"/>
+      <c r="J475" s="11"/>
+      <c r="K475" s="20"/>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476" s="39">
+        <v>46447</v>
+      </c>
+      <c r="B476" s="20"/>
+      <c r="C476" s="13"/>
+      <c r="D476" s="38"/>
+      <c r="E476" s="9"/>
+      <c r="F476" s="20"/>
+      <c r="G476" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H476" s="38"/>
+      <c r="I476" s="9"/>
+      <c r="J476" s="11"/>
+      <c r="K476" s="20"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" s="39">
+        <v>46478</v>
+      </c>
+      <c r="B477" s="20"/>
+      <c r="C477" s="13"/>
+      <c r="D477" s="38"/>
+      <c r="E477" s="9"/>
+      <c r="F477" s="20"/>
+      <c r="G477" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H477" s="38"/>
+      <c r="I477" s="9"/>
+      <c r="J477" s="11"/>
+      <c r="K477" s="20"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" s="39">
+        <v>46508</v>
+      </c>
+      <c r="B478" s="20"/>
+      <c r="C478" s="13"/>
+      <c r="D478" s="38"/>
+      <c r="E478" s="9"/>
+      <c r="F478" s="20"/>
+      <c r="G478" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H478" s="38"/>
+      <c r="I478" s="9"/>
+      <c r="J478" s="11"/>
+      <c r="K478" s="20"/>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" s="39"/>
+      <c r="B479" s="20"/>
+      <c r="C479" s="13"/>
+      <c r="D479" s="38"/>
+      <c r="E479" s="9"/>
+      <c r="F479" s="20"/>
+      <c r="G479" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H479" s="41"/>
+      <c r="I479" s="9"/>
+      <c r="J479" s="12"/>
+      <c r="K479" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12566,10 +12716,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12592,28 +12742,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -12626,7 +12776,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12655,7 +12805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -12683,17 +12833,17 @@
         <v>0.2919999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -12714,7 +12864,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -12741,7 +12891,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -12767,7 +12917,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -12793,7 +12943,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -12819,7 +12969,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -12845,7 +12995,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -12871,7 +13021,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -12897,7 +13047,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -12923,7 +13073,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -12943,7 +13093,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -12963,7 +13113,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -12983,7 +13133,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -13004,7 +13154,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -13025,7 +13175,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -13046,7 +13196,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -13067,7 +13217,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -13088,7 +13238,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -13109,7 +13259,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -13130,7 +13280,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -13151,7 +13301,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -13172,7 +13322,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -13193,7 +13343,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -13214,7 +13364,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -13235,7 +13385,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -13256,7 +13406,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -13277,7 +13427,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -13298,7 +13448,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -13319,7 +13469,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -13340,7 +13490,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -13361,7 +13511,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -13382,7 +13532,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -13403,7 +13553,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -13412,7 +13562,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -13421,7 +13571,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -13430,7 +13580,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -13439,7 +13589,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -13448,7 +13598,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -13457,7 +13607,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -13466,7 +13616,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -13475,7 +13625,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -13484,7 +13634,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -13493,7 +13643,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -13502,7 +13652,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -13511,7 +13661,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -13520,7 +13670,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -13529,7 +13679,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -13538,7 +13688,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -13547,7 +13697,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -13556,7 +13706,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -13565,7 +13715,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -13574,7 +13724,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -13583,7 +13733,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -13592,7 +13742,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -13601,7 +13751,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -13610,7 +13760,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -13619,7 +13769,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -13628,7 +13778,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -13637,7 +13787,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -13646,7 +13796,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -13655,7 +13805,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -13664,7 +13814,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CCT/PEREY, AIRENE.xlsx
+++ b/REGULAR/CCT/PEREY, AIRENE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="336">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1020,6 +1020,27 @@
   </si>
   <si>
     <t>12/8,11/2023</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>11/10,13,24/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-43)</t>
+  </si>
+  <si>
+    <t>UT(0-0-41)</t>
+  </si>
+  <si>
+    <t>A(11-0-0)</t>
+  </si>
+  <si>
+    <t>3/9,10,13-16,20-24/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-47)</t>
   </si>
 </sst>
 </file>
@@ -1727,8 +1748,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K479" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K479"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K486" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K486"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2057,12 +2078,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M479"/>
+  <dimension ref="A2:M486"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A413" activePane="bottomLeft"/>
       <selection activeCell="M10" sqref="M10"/>
-      <selection pane="bottomLeft" activeCell="K436" sqref="K436"/>
+      <selection pane="bottomLeft" activeCell="E423" sqref="E423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2227,7 +2248,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>76.700000000000045</v>
+        <v>61.837000000000046</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2243,7 +2264,7 @@
       <c r="K9" s="20"/>
       <c r="M9" s="44">
         <f>SUM(E9,I9)</f>
-        <v>189.49200000000008</v>
+        <v>174.62900000000008</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -11478,43 +11499,41 @@
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="39">
-        <v>44958</v>
-      </c>
+      <c r="A418" s="39"/>
       <c r="B418" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C418" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D418" s="38"/>
+        <v>69</v>
+      </c>
+      <c r="C418" s="13"/>
+      <c r="D418" s="38">
+        <v>2.3000000000000007E-2</v>
+      </c>
       <c r="E418" s="9"/>
       <c r="F418" s="20"/>
-      <c r="G418" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H418" s="38">
-        <v>2</v>
-      </c>
+      <c r="G418" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H418" s="38"/>
       <c r="I418" s="9"/>
       <c r="J418" s="11"/>
-      <c r="K418" s="20" t="s">
-        <v>305</v>
-      </c>
+      <c r="K418" s="47"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="39"/>
+      <c r="A419" s="39">
+        <v>44958</v>
+      </c>
       <c r="B419" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C419" s="13"/>
+      <c r="C419" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D419" s="38"/>
       <c r="E419" s="9"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G419" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H419" s="38">
         <v>2</v>
@@ -11522,67 +11541,57 @@
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
       <c r="K419" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="39">
-        <v>44986</v>
-      </c>
+      <c r="A420" s="39"/>
       <c r="B420" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C420" s="13">
-        <v>1.25</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C420" s="13"/>
       <c r="D420" s="38"/>
       <c r="E420" s="9"/>
       <c r="F420" s="20"/>
-      <c r="G420" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G420" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H420" s="38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
       <c r="K420" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="39">
-        <v>45017</v>
-      </c>
+      <c r="A421" s="39"/>
       <c r="B421" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C421" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D421" s="38"/>
+        <v>135</v>
+      </c>
+      <c r="C421" s="13"/>
+      <c r="D421" s="38">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="E421" s="9"/>
       <c r="F421" s="20"/>
-      <c r="G421" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H421" s="38">
-        <v>3</v>
-      </c>
+      <c r="G421" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H421" s="38"/>
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
-      <c r="K421" s="20" t="s">
-        <v>308</v>
-      </c>
+      <c r="K421" s="20"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="39">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="B422" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C422" s="13">
         <v>1.25</v>
@@ -11595,229 +11604,227 @@
         <v>1.25</v>
       </c>
       <c r="H422" s="38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
       <c r="K422" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="39">
-        <v>45078</v>
-      </c>
+      <c r="A423" s="39"/>
       <c r="B423" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C423" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D423" s="38"/>
+        <v>333</v>
+      </c>
+      <c r="C423" s="13"/>
+      <c r="D423" s="38">
+        <v>11</v>
+      </c>
       <c r="E423" s="9"/>
       <c r="F423" s="20"/>
-      <c r="G423" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H423" s="38">
-        <v>1</v>
-      </c>
+      <c r="G423" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H423" s="38"/>
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
-      <c r="K423" s="47">
-        <v>45077</v>
+      <c r="K423" s="20" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39"/>
       <c r="B424" s="20" t="s">
-        <v>48</v>
+        <v>335</v>
       </c>
       <c r="C424" s="13"/>
-      <c r="D424" s="38"/>
+      <c r="D424" s="38">
+        <v>9.8000000000000004E-2</v>
+      </c>
       <c r="E424" s="9"/>
       <c r="F424" s="20"/>
       <c r="G424" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H424" s="38">
-        <v>2</v>
-      </c>
+      <c r="H424" s="38"/>
       <c r="I424" s="9"/>
       <c r="J424" s="11"/>
-      <c r="K424" s="47" t="s">
-        <v>310</v>
-      </c>
+      <c r="K424" s="20"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="39"/>
+      <c r="A425" s="39">
+        <v>45017</v>
+      </c>
       <c r="B425" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C425" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="C425" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D425" s="38"/>
       <c r="E425" s="9"/>
       <c r="F425" s="20"/>
-      <c r="G425" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H425" s="38"/>
+      <c r="G425" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H425" s="38">
+        <v>3</v>
+      </c>
       <c r="I425" s="9"/>
       <c r="J425" s="11"/>
-      <c r="K425" s="47">
-        <v>45112</v>
+      <c r="K425" s="20" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="39">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B426" s="20" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C426" s="13">
         <v>1.25</v>
       </c>
-      <c r="D426" s="38">
-        <v>2</v>
-      </c>
+      <c r="D426" s="38"/>
       <c r="E426" s="9"/>
       <c r="F426" s="20"/>
       <c r="G426" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H426" s="38"/>
+      <c r="H426" s="38">
+        <v>2</v>
+      </c>
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>
-      <c r="K426" s="47">
-        <v>45110</v>
+      <c r="K426" s="20" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" s="39"/>
+      <c r="A427" s="39">
+        <v>45078</v>
+      </c>
       <c r="B427" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C427" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="C427" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D427" s="38"/>
       <c r="E427" s="9"/>
       <c r="F427" s="20"/>
-      <c r="G427" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G427" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H427" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" s="9"/>
       <c r="J427" s="11"/>
-      <c r="K427" s="47" t="s">
-        <v>311</v>
+      <c r="K427" s="47">
+        <v>45077</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" s="39">
-        <v>45139</v>
-      </c>
+      <c r="A428" s="39"/>
       <c r="B428" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C428" s="13">
-        <v>1.25</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C428" s="13"/>
       <c r="D428" s="38"/>
       <c r="E428" s="9"/>
       <c r="F428" s="20"/>
-      <c r="G428" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G428" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H428" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I428" s="9"/>
       <c r="J428" s="11"/>
-      <c r="K428" s="47">
-        <v>45158</v>
+      <c r="K428" s="47" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="39">
-        <v>45170</v>
-      </c>
+      <c r="A429" s="39"/>
       <c r="B429" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="C429" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D429" s="38">
-        <v>9</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C429" s="13"/>
+      <c r="D429" s="38"/>
       <c r="E429" s="9"/>
       <c r="F429" s="20"/>
-      <c r="G429" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G429" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H429" s="38"/>
       <c r="I429" s="9"/>
       <c r="J429" s="11"/>
-      <c r="K429" s="20" t="s">
-        <v>324</v>
+      <c r="K429" s="47">
+        <v>45112</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="39"/>
+      <c r="A430" s="39">
+        <v>45108</v>
+      </c>
       <c r="B430" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C430" s="13"/>
-      <c r="D430" s="38"/>
+        <v>59</v>
+      </c>
+      <c r="C430" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D430" s="38">
+        <v>2</v>
+      </c>
       <c r="E430" s="9"/>
       <c r="F430" s="20"/>
-      <c r="G430" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H430" s="38">
-        <v>2</v>
-      </c>
+      <c r="G430" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H430" s="38"/>
       <c r="I430" s="9"/>
       <c r="J430" s="11"/>
-      <c r="K430" s="20" t="s">
-        <v>325</v>
+      <c r="K430" s="47">
+        <v>45110</v>
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="39"/>
       <c r="B431" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C431" s="13"/>
-      <c r="D431" s="38">
-        <v>6</v>
-      </c>
+      <c r="D431" s="38"/>
       <c r="E431" s="9"/>
       <c r="F431" s="20"/>
       <c r="G431" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H431" s="38"/>
+      <c r="H431" s="38">
+        <v>2</v>
+      </c>
       <c r="I431" s="9"/>
       <c r="J431" s="11"/>
-      <c r="K431" s="20" t="s">
-        <v>326</v>
+      <c r="K431" s="47" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="39">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B432" s="20" t="s">
         <v>45</v>
@@ -11838,18 +11845,22 @@
       <c r="I432" s="9"/>
       <c r="J432" s="11"/>
       <c r="K432" s="47">
-        <v>45219</v>
+        <v>45158</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="39">
-        <v>45231</v>
-      </c>
-      <c r="B433" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B433" s="20" t="s">
+        <v>236</v>
+      </c>
       <c r="C433" s="13">
         <v>1.25</v>
       </c>
-      <c r="D433" s="38"/>
+      <c r="D433" s="38">
+        <v>9</v>
+      </c>
       <c r="E433" s="9"/>
       <c r="F433" s="20"/>
       <c r="G433" s="13">
@@ -11859,14 +11870,14 @@
       <c r="H433" s="38"/>
       <c r="I433" s="9"/>
       <c r="J433" s="11"/>
-      <c r="K433" s="20"/>
+      <c r="K433" s="20" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="39">
-        <v>45261</v>
-      </c>
+      <c r="A434" s="39"/>
       <c r="B434" s="20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C434" s="13"/>
       <c r="D434" s="38"/>
@@ -11877,83 +11888,91 @@
         <v/>
       </c>
       <c r="H434" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I434" s="9"/>
       <c r="J434" s="11"/>
-      <c r="K434" s="47">
-        <v>45261</v>
+      <c r="K434" s="20" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="39"/>
       <c r="B435" s="20" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C435" s="13"/>
-      <c r="D435" s="38"/>
+      <c r="D435" s="38">
+        <v>6</v>
+      </c>
       <c r="E435" s="9"/>
       <c r="F435" s="20"/>
       <c r="G435" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H435" s="38">
-        <v>1</v>
-      </c>
+      <c r="H435" s="38"/>
       <c r="I435" s="9"/>
       <c r="J435" s="11"/>
-      <c r="K435" s="47">
-        <v>45272</v>
+      <c r="K435" s="20" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="39"/>
       <c r="B436" s="20" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="C436" s="13"/>
-      <c r="D436" s="38"/>
+      <c r="D436" s="38">
+        <v>0.5</v>
+      </c>
       <c r="E436" s="9"/>
       <c r="F436" s="20"/>
       <c r="G436" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H436" s="38">
-        <v>2</v>
-      </c>
+      <c r="H436" s="38"/>
       <c r="I436" s="9"/>
       <c r="J436" s="11"/>
-      <c r="K436" s="47" t="s">
-        <v>328</v>
-      </c>
+      <c r="K436" s="20"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A437" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="B437" s="20"/>
-      <c r="C437" s="13"/>
+      <c r="A437" s="39">
+        <v>45200</v>
+      </c>
+      <c r="B437" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C437" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D437" s="38"/>
       <c r="E437" s="9"/>
       <c r="F437" s="20"/>
-      <c r="G437" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H437" s="38"/>
+      <c r="G437" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H437" s="38">
+        <v>1</v>
+      </c>
       <c r="I437" s="9"/>
       <c r="J437" s="11"/>
-      <c r="K437" s="47"/>
+      <c r="K437" s="47">
+        <v>45219</v>
+      </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="39">
-        <v>45292</v>
-      </c>
-      <c r="B438" s="20"/>
+      <c r="A438" s="39"/>
+      <c r="B438" s="20" t="s">
+        <v>332</v>
+      </c>
       <c r="C438" s="13"/>
-      <c r="D438" s="38"/>
+      <c r="D438" s="38">
+        <v>8.500000000000002E-2</v>
+      </c>
       <c r="E438" s="9"/>
       <c r="F438" s="20"/>
       <c r="G438" s="13" t="str">
@@ -11963,33 +11982,43 @@
       <c r="H438" s="38"/>
       <c r="I438" s="9"/>
       <c r="J438" s="11"/>
-      <c r="K438" s="20"/>
+      <c r="K438" s="47"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39">
-        <v>45323</v>
-      </c>
-      <c r="B439" s="20"/>
-      <c r="C439" s="13"/>
-      <c r="D439" s="38"/>
+        <v>45231</v>
+      </c>
+      <c r="B439" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C439" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D439" s="38">
+        <v>3</v>
+      </c>
       <c r="E439" s="9"/>
       <c r="F439" s="20"/>
-      <c r="G439" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G439" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H439" s="38"/>
       <c r="I439" s="9"/>
       <c r="J439" s="11"/>
-      <c r="K439" s="20"/>
+      <c r="K439" s="20" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="39">
-        <v>45352</v>
-      </c>
-      <c r="B440" s="20"/>
+      <c r="A440" s="39"/>
+      <c r="B440" s="20" t="s">
+        <v>331</v>
+      </c>
       <c r="C440" s="13"/>
-      <c r="D440" s="38"/>
+      <c r="D440" s="38">
+        <v>0.09</v>
+      </c>
       <c r="E440" s="9"/>
       <c r="F440" s="20"/>
       <c r="G440" s="13" t="str">
@@ -12003,9 +12032,11 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="39">
-        <v>45383</v>
-      </c>
-      <c r="B441" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B441" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C441" s="13"/>
       <c r="D441" s="38"/>
       <c r="E441" s="9"/>
@@ -12014,16 +12045,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H441" s="38"/>
+      <c r="H441" s="38">
+        <v>1</v>
+      </c>
       <c r="I441" s="9"/>
       <c r="J441" s="11"/>
-      <c r="K441" s="20"/>
+      <c r="K441" s="47">
+        <v>45261</v>
+      </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A442" s="39">
-        <v>45413</v>
-      </c>
-      <c r="B442" s="20"/>
+      <c r="A442" s="39"/>
+      <c r="B442" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C442" s="13"/>
       <c r="D442" s="38"/>
       <c r="E442" s="9"/>
@@ -12032,16 +12067,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H442" s="38"/>
+      <c r="H442" s="38">
+        <v>1</v>
+      </c>
       <c r="I442" s="9"/>
       <c r="J442" s="11"/>
-      <c r="K442" s="20"/>
+      <c r="K442" s="47">
+        <v>45272</v>
+      </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A443" s="39">
-        <v>45444</v>
-      </c>
-      <c r="B443" s="20"/>
+      <c r="A443" s="39"/>
+      <c r="B443" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C443" s="13"/>
       <c r="D443" s="38"/>
       <c r="E443" s="9"/>
@@ -12050,14 +12089,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H443" s="38"/>
+      <c r="H443" s="38">
+        <v>2</v>
+      </c>
       <c r="I443" s="9"/>
       <c r="J443" s="11"/>
-      <c r="K443" s="20"/>
+      <c r="K443" s="47" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A444" s="39">
-        <v>45474</v>
+      <c r="A444" s="46" t="s">
+        <v>327</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -12071,11 +12114,11 @@
       <c r="H444" s="38"/>
       <c r="I444" s="9"/>
       <c r="J444" s="11"/>
-      <c r="K444" s="20"/>
+      <c r="K444" s="47"/>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39">
-        <v>45505</v>
+        <v>45292</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -12093,7 +12136,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="39">
-        <v>45536</v>
+        <v>45323</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -12111,7 +12154,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="39">
-        <v>45566</v>
+        <v>45352</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -12129,7 +12172,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39">
-        <v>45597</v>
+        <v>45383</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -12147,7 +12190,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39">
-        <v>45627</v>
+        <v>45413</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -12165,7 +12208,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="39">
-        <v>45658</v>
+        <v>45444</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -12183,7 +12226,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="39">
-        <v>45689</v>
+        <v>45474</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -12201,7 +12244,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="39">
-        <v>45717</v>
+        <v>45505</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -12219,7 +12262,7 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="39">
-        <v>45748</v>
+        <v>45536</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -12237,7 +12280,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="39">
-        <v>45778</v>
+        <v>45566</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -12255,7 +12298,7 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="39">
-        <v>45809</v>
+        <v>45597</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -12273,7 +12316,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="39">
-        <v>45839</v>
+        <v>45627</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -12291,7 +12334,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="39">
-        <v>45870</v>
+        <v>45658</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -12309,7 +12352,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="39">
-        <v>45901</v>
+        <v>45689</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -12327,7 +12370,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="39">
-        <v>45931</v>
+        <v>45717</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -12345,7 +12388,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="39">
-        <v>45962</v>
+        <v>45748</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -12363,7 +12406,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="39">
-        <v>45992</v>
+        <v>45778</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -12381,7 +12424,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="39">
-        <v>46023</v>
+        <v>45809</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -12399,7 +12442,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="39">
-        <v>46054</v>
+        <v>45839</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -12417,7 +12460,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="39">
-        <v>46082</v>
+        <v>45870</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -12435,7 +12478,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="39">
-        <v>46113</v>
+        <v>45901</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -12453,7 +12496,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="39">
-        <v>46143</v>
+        <v>45931</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -12471,7 +12514,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="39">
-        <v>46174</v>
+        <v>45962</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -12489,7 +12532,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="39">
-        <v>46204</v>
+        <v>45992</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -12507,7 +12550,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="39">
-        <v>46235</v>
+        <v>46023</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -12525,7 +12568,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="39">
-        <v>46266</v>
+        <v>46054</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -12543,7 +12586,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="39">
-        <v>46296</v>
+        <v>46082</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -12561,7 +12604,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="39">
-        <v>46327</v>
+        <v>46113</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -12579,14 +12622,14 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="39">
-        <v>46357</v>
+        <v>46143</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
       <c r="D473" s="38"/>
       <c r="E473" s="9"/>
-      <c r="F473" s="15"/>
-      <c r="G473" s="40" t="str">
+      <c r="F473" s="20"/>
+      <c r="G473" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -12597,7 +12640,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="39">
-        <v>46388</v>
+        <v>46174</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -12615,7 +12658,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="39">
-        <v>46419</v>
+        <v>46204</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -12633,7 +12676,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="39">
-        <v>46447</v>
+        <v>46235</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12651,7 +12694,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="39">
-        <v>46478</v>
+        <v>46266</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12669,7 +12712,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="39">
-        <v>46508</v>
+        <v>46296</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12686,7 +12729,9 @@
       <c r="K478" s="20"/>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A479" s="39"/>
+      <c r="A479" s="39">
+        <v>46327</v>
+      </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
       <c r="D479" s="38"/>
@@ -12696,10 +12741,134 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H479" s="41"/>
+      <c r="H479" s="38"/>
       <c r="I479" s="9"/>
-      <c r="J479" s="12"/>
-      <c r="K479" s="15"/>
+      <c r="J479" s="11"/>
+      <c r="K479" s="20"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A480" s="39">
+        <v>46357</v>
+      </c>
+      <c r="B480" s="20"/>
+      <c r="C480" s="13"/>
+      <c r="D480" s="38"/>
+      <c r="E480" s="9"/>
+      <c r="F480" s="15"/>
+      <c r="G480" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H480" s="38"/>
+      <c r="I480" s="9"/>
+      <c r="J480" s="11"/>
+      <c r="K480" s="20"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A481" s="39">
+        <v>46388</v>
+      </c>
+      <c r="B481" s="20"/>
+      <c r="C481" s="13"/>
+      <c r="D481" s="38"/>
+      <c r="E481" s="9"/>
+      <c r="F481" s="20"/>
+      <c r="G481" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H481" s="38"/>
+      <c r="I481" s="9"/>
+      <c r="J481" s="11"/>
+      <c r="K481" s="20"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A482" s="39">
+        <v>46419</v>
+      </c>
+      <c r="B482" s="20"/>
+      <c r="C482" s="13"/>
+      <c r="D482" s="38"/>
+      <c r="E482" s="9"/>
+      <c r="F482" s="20"/>
+      <c r="G482" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H482" s="38"/>
+      <c r="I482" s="9"/>
+      <c r="J482" s="11"/>
+      <c r="K482" s="20"/>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A483" s="39">
+        <v>46447</v>
+      </c>
+      <c r="B483" s="20"/>
+      <c r="C483" s="13"/>
+      <c r="D483" s="38"/>
+      <c r="E483" s="9"/>
+      <c r="F483" s="20"/>
+      <c r="G483" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H483" s="38"/>
+      <c r="I483" s="9"/>
+      <c r="J483" s="11"/>
+      <c r="K483" s="20"/>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A484" s="39">
+        <v>46478</v>
+      </c>
+      <c r="B484" s="20"/>
+      <c r="C484" s="13"/>
+      <c r="D484" s="38"/>
+      <c r="E484" s="9"/>
+      <c r="F484" s="20"/>
+      <c r="G484" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H484" s="38"/>
+      <c r="I484" s="9"/>
+      <c r="J484" s="11"/>
+      <c r="K484" s="20"/>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A485" s="39">
+        <v>46508</v>
+      </c>
+      <c r="B485" s="20"/>
+      <c r="C485" s="13"/>
+      <c r="D485" s="38"/>
+      <c r="E485" s="9"/>
+      <c r="F485" s="20"/>
+      <c r="G485" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H485" s="38"/>
+      <c r="I485" s="9"/>
+      <c r="J485" s="11"/>
+      <c r="K485" s="20"/>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A486" s="39"/>
+      <c r="B486" s="20"/>
+      <c r="C486" s="13"/>
+      <c r="D486" s="38"/>
+      <c r="E486" s="9"/>
+      <c r="F486" s="20"/>
+      <c r="G486" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H486" s="41"/>
+      <c r="I486" s="9"/>
+      <c r="J486" s="12"/>
+      <c r="K486" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12815,11 +12984,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G3" s="43">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>6.7000000000000004E-2</v>
+        <v>2.3000000000000007E-2</v>
       </c>
       <c r="J3" s="45">
         <v>24</v>

--- a/REGULAR/CCT/PEREY, AIRENE.xlsx
+++ b/REGULAR/CCT/PEREY, AIRENE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2304E0-DE26-4886-BE6A-DFF45B604DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="336">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1046,7 +1047,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1731,7 +1732,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1748,26 +1749,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K486" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K486"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K486" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K486" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2074,34 +2075,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:M486"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A413" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A437" activePane="bottomLeft"/>
       <selection activeCell="M10" sqref="M10"/>
-      <selection pane="bottomLeft" activeCell="E423" sqref="E423"/>
+      <selection pane="bottomLeft" activeCell="K446" sqref="K446"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2122,7 +2123,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2144,7 +2145,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2166,7 +2167,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2174,7 +2175,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2187,7 +2188,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2204,7 +2205,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2248,7 +2249,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>61.837000000000046</v>
+        <v>63.087000000000046</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2258,16 +2259,16 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>112.79200000000003</v>
+        <v>113.04200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
       <c r="M9" s="44">
         <f>SUM(E9,I9)</f>
-        <v>174.62900000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>176.12900000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>58</v>
       </c>
@@ -2289,7 +2290,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>36549</v>
       </c>
@@ -2309,7 +2310,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>36557</v>
       </c>
@@ -2329,7 +2330,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>36586</v>
@@ -2350,7 +2351,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A83" si="0">EDATE(A13,1)</f>
         <v>36617</v>
@@ -2371,7 +2372,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>36647</v>
@@ -2392,7 +2393,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>36678</v>
@@ -2413,7 +2414,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>36708</v>
@@ -2434,7 +2435,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>36739</v>
@@ -2455,7 +2456,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>36770</v>
@@ -2476,7 +2477,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>36800</v>
@@ -2497,7 +2498,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>36831</v>
@@ -2524,7 +2525,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>36861</v>
@@ -2549,7 +2550,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
         <v>61</v>
       </c>
@@ -2567,7 +2568,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f>EDATE(A22,1)</f>
         <v>36892</v>
@@ -2588,7 +2589,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <f t="shared" si="0"/>
         <v>36923</v>
@@ -2609,7 +2610,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>36951</v>
@@ -2630,7 +2631,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>36982</v>
@@ -2651,7 +2652,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>37012</v>
@@ -2672,7 +2673,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -2693,7 +2694,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -2718,7 +2719,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -2739,7 +2740,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>37135</v>
@@ -2764,7 +2765,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>37165</v>
@@ -2791,7 +2792,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>66</v>
@@ -2811,7 +2812,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <f>EDATE(A33,1)</f>
         <v>37196</v>
@@ -2838,7 +2839,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>68</v>
@@ -2858,7 +2859,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <f>EDATE(A35,1)</f>
         <v>37226</v>
@@ -2879,7 +2880,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="46" t="s">
         <v>64</v>
       </c>
@@ -2897,7 +2898,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <f>EDATE(A37,1)</f>
         <v>37257</v>
@@ -2918,7 +2919,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <f t="shared" si="0"/>
         <v>37288</v>
@@ -2943,7 +2944,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>37316</v>
@@ -2964,7 +2965,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>37347</v>
@@ -2985,7 +2986,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <f t="shared" si="0"/>
         <v>37377</v>
@@ -3010,7 +3011,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <f t="shared" si="0"/>
         <v>37408</v>
@@ -3031,7 +3032,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>37438</v>
@@ -3056,7 +3057,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>37469</v>
@@ -3077,7 +3078,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>37500</v>
@@ -3102,7 +3103,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>37530</v>
@@ -3123,7 +3124,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>37561</v>
@@ -3150,7 +3151,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <f t="shared" si="0"/>
         <v>37591</v>
@@ -3171,7 +3172,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="46" t="s">
         <v>72</v>
       </c>
@@ -3189,7 +3190,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <f>EDATE(A50,1)</f>
         <v>37622</v>
@@ -3210,7 +3211,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <f t="shared" si="0"/>
         <v>37653</v>
@@ -3231,7 +3232,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>37681</v>
@@ -3256,7 +3257,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <f t="shared" si="0"/>
         <v>37712</v>
@@ -3277,7 +3278,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <f t="shared" si="0"/>
         <v>37742</v>
@@ -3298,7 +3299,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -3319,7 +3320,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -3340,7 +3341,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -3361,7 +3362,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -3382,7 +3383,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>37895</v>
@@ -3403,7 +3404,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <f t="shared" si="0"/>
         <v>37926</v>
@@ -3424,7 +3425,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <f t="shared" si="0"/>
         <v>37956</v>
@@ -3449,7 +3450,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="46" t="s">
         <v>74</v>
       </c>
@@ -3467,7 +3468,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <f>EDATE(A63,1)</f>
         <v>37987</v>
@@ -3488,7 +3489,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <f t="shared" si="0"/>
         <v>38018</v>
@@ -3509,7 +3510,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <f t="shared" si="0"/>
         <v>38047</v>
@@ -3530,7 +3531,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <f t="shared" si="0"/>
         <v>38078</v>
@@ -3555,7 +3556,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <f t="shared" si="0"/>
         <v>38108</v>
@@ -3576,7 +3577,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <f t="shared" si="0"/>
         <v>38139</v>
@@ -3597,7 +3598,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <f t="shared" si="0"/>
         <v>38169</v>
@@ -3618,7 +3619,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <f t="shared" si="0"/>
         <v>38200</v>
@@ -3639,7 +3640,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <f t="shared" si="0"/>
         <v>38231</v>
@@ -3660,7 +3661,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <f t="shared" si="0"/>
         <v>38261</v>
@@ -3681,7 +3682,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <f>EDATE(A74,1)</f>
         <v>38292</v>
@@ -3702,7 +3703,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <f t="shared" si="0"/>
         <v>38322</v>
@@ -3727,7 +3728,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="46" t="s">
         <v>75</v>
       </c>
@@ -3745,7 +3746,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <f>EDATE(A76,1)</f>
         <v>38353</v>
@@ -3766,7 +3767,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <f t="shared" si="0"/>
         <v>38384</v>
@@ -3787,7 +3788,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <f t="shared" si="0"/>
         <v>38412</v>
@@ -3808,7 +3809,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <f t="shared" si="0"/>
         <v>38443</v>
@@ -3829,7 +3830,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f t="shared" si="0"/>
         <v>38473</v>
@@ -3850,7 +3851,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
         <f t="shared" si="0"/>
         <v>38504</v>
@@ -3875,7 +3876,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>46</v>
@@ -3897,7 +3898,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <f>EDATE(A83,1)</f>
         <v>38534</v>
@@ -3918,7 +3919,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <f t="shared" ref="A86:A98" si="1">EDATE(A85,1)</f>
         <v>38565</v>
@@ -3939,7 +3940,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -3960,7 +3961,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -3987,7 +3988,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <f t="shared" si="1"/>
         <v>38657</v>
@@ -4008,7 +4009,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <f t="shared" si="1"/>
         <v>38687</v>
@@ -4029,7 +4030,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="46" t="s">
         <v>80</v>
       </c>
@@ -4047,7 +4048,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <f>EDATE(A90,1)</f>
         <v>38718</v>
@@ -4068,7 +4069,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <f t="shared" si="1"/>
         <v>38749</v>
@@ -4089,7 +4090,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <f t="shared" si="1"/>
         <v>38777</v>
@@ -4110,7 +4111,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <f t="shared" si="1"/>
         <v>38808</v>
@@ -4131,7 +4132,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <f t="shared" si="1"/>
         <v>38838</v>
@@ -4152,7 +4153,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <f t="shared" si="1"/>
         <v>38869</v>
@@ -4173,7 +4174,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <f t="shared" si="1"/>
         <v>38899</v>
@@ -4198,7 +4199,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>84</v>
@@ -4218,7 +4219,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <f>EDATE(A98,1)</f>
         <v>38930</v>
@@ -4243,7 +4244,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <f>EDATE(A100,1)</f>
         <v>38961</v>
@@ -4270,7 +4271,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <f t="shared" ref="A102:A120" si="2">EDATE(A101,1)</f>
         <v>38991</v>
@@ -4297,7 +4298,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <f t="shared" si="2"/>
         <v>39022</v>
@@ -4322,7 +4323,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <f t="shared" si="2"/>
         <v>39052</v>
@@ -4347,7 +4348,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="46" t="s">
         <v>83</v>
       </c>
@@ -4365,7 +4366,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <f>EDATE(A104,1)</f>
         <v>39083</v>
@@ -4390,7 +4391,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <f t="shared" si="2"/>
         <v>39114</v>
@@ -4417,7 +4418,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>91</v>
@@ -4437,7 +4438,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <f>EDATE(A107,1)</f>
         <v>39142</v>
@@ -4462,7 +4463,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <f t="shared" si="2"/>
         <v>39173</v>
@@ -4487,7 +4488,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
         <f t="shared" si="2"/>
         <v>39203</v>
@@ -4514,7 +4515,7 @@
         <v>39360</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>94</v>
@@ -4534,7 +4535,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="47"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <f>EDATE(A111,1)</f>
         <v>39234</v>
@@ -4559,7 +4560,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <f t="shared" si="2"/>
         <v>39264</v>
@@ -4584,7 +4585,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>96</v>
@@ -4604,7 +4605,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
         <f>EDATE(A114,1)</f>
         <v>39295</v>
@@ -4629,7 +4630,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -4650,7 +4651,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <f t="shared" si="2"/>
         <v>39356</v>
@@ -4677,7 +4678,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <f t="shared" si="2"/>
         <v>39387</v>
@@ -4704,7 +4705,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
         <f t="shared" si="2"/>
         <v>39417</v>
@@ -4725,7 +4726,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="46" t="s">
         <v>104</v>
       </c>
@@ -4743,7 +4744,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <f>EDATE(A120,1)</f>
         <v>39448</v>
@@ -4764,7 +4765,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <f>EDATE(A122,1)</f>
         <v>39479</v>
@@ -4785,7 +4786,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <f t="shared" ref="A124:A134" si="3">EDATE(A123,1)</f>
         <v>39508</v>
@@ -4806,7 +4807,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <f t="shared" si="3"/>
         <v>39539</v>
@@ -4827,7 +4828,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <f>EDATE(A125,1)</f>
         <v>39569</v>
@@ -4852,7 +4853,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>47</v>
@@ -4872,7 +4873,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <f>EDATE(A126,1)</f>
         <v>39600</v>
@@ -4893,7 +4894,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <f t="shared" si="3"/>
         <v>39630</v>
@@ -4914,7 +4915,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <f t="shared" si="3"/>
         <v>39661</v>
@@ -4935,7 +4936,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <f t="shared" si="3"/>
         <v>39692</v>
@@ -4962,7 +4963,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>45</v>
@@ -4984,7 +4985,7 @@
         <v>39638</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <f>EDATE(A131,1)</f>
         <v>39722</v>
@@ -5011,7 +5012,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <f t="shared" si="3"/>
         <v>39753</v>
@@ -5036,7 +5037,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <f>EDATE(A134,1)</f>
         <v>39783</v>
@@ -5061,7 +5062,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="46" t="s">
         <v>111</v>
       </c>
@@ -5079,7 +5080,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <f>EDATE(A135,1)</f>
         <v>39814</v>
@@ -5106,7 +5107,7 @@
         <v>40148</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>112</v>
@@ -5126,7 +5127,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="47"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <f>EDATE(A137,1)</f>
         <v>39845</v>
@@ -5153,7 +5154,7 @@
         <v>40088</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>113</v>
@@ -5173,7 +5174,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="47"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23">
         <f>EDATE(A139,1)</f>
         <v>39873</v>
@@ -5200,7 +5201,7 @@
         <v>40120</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>114</v>
@@ -5220,7 +5221,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="47"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <f>EDATE(A141,1)</f>
         <v>39904</v>
@@ -5247,7 +5248,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>117</v>
@@ -5267,7 +5268,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <f>EDATE(A143,1)</f>
         <v>39934</v>
@@ -5294,7 +5295,7 @@
         <v>40030</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>45</v>
@@ -5316,7 +5317,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <f>EDATE(A145,1)</f>
         <v>39965</v>
@@ -5341,7 +5342,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
         <f>EDATE(A147,1)</f>
         <v>39995</v>
@@ -5366,7 +5367,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>45</v>
@@ -5386,7 +5387,7 @@
         <v>39971</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>45</v>
@@ -5406,7 +5407,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>66</v>
@@ -5426,7 +5427,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <f>EDATE(A148,1)</f>
         <v>40026</v>
@@ -5453,7 +5454,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <f t="shared" ref="A153:A157" si="4">EDATE(A152,1)</f>
         <v>40057</v>
@@ -5478,7 +5479,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>45</v>
@@ -5500,7 +5501,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>40087</v>
@@ -5525,7 +5526,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23">
         <f t="shared" si="4"/>
         <v>40118</v>
@@ -5550,7 +5551,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <f t="shared" si="4"/>
         <v>40148</v>
@@ -5575,7 +5576,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="46" t="s">
         <v>127</v>
       </c>
@@ -5593,7 +5594,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <f>EDATE(A157,1)</f>
         <v>40179</v>
@@ -5620,7 +5621,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>45</v>
@@ -5642,7 +5643,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>204</v>
@@ -5662,7 +5663,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <f>EDATE(A159,1)</f>
         <v>40210</v>
@@ -5689,7 +5690,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>295</v>
@@ -5709,7 +5710,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <f>EDATE(A162,1)</f>
         <v>40238</v>
@@ -5736,7 +5737,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>128</v>
@@ -5756,7 +5757,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23">
         <f>EDATE(A164,1)</f>
         <v>40269</v>
@@ -5781,7 +5782,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <f t="shared" ref="A167:A255" si="5">EDATE(A166,1)</f>
         <v>40299</v>
@@ -5808,7 +5809,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>131</v>
@@ -5828,7 +5829,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23">
         <f>EDATE(A167,1)</f>
         <v>40330</v>
@@ -5853,7 +5854,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>45</v>
@@ -5875,7 +5876,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>47</v>
@@ -5897,7 +5898,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23">
         <f>EDATE(A169,1)</f>
         <v>40360</v>
@@ -5922,7 +5923,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
         <f t="shared" si="5"/>
         <v>40391</v>
@@ -5949,7 +5950,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>137</v>
@@ -5969,7 +5970,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <f>EDATE(A173,1)</f>
         <v>40422</v>
@@ -5996,7 +5997,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>47</v>
@@ -6016,7 +6017,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <f>EDATE(A175,1)</f>
         <v>40452</v>
@@ -6037,7 +6038,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
         <f t="shared" si="5"/>
         <v>40483</v>
@@ -6058,7 +6059,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <f t="shared" si="5"/>
         <v>40513</v>
@@ -6083,7 +6084,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="46" t="s">
         <v>141</v>
       </c>
@@ -6101,7 +6102,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23">
         <f>EDATE(A179,1)</f>
         <v>40544</v>
@@ -6126,7 +6127,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <f t="shared" si="5"/>
         <v>40575</v>
@@ -6153,7 +6154,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>143</v>
@@ -6173,7 +6174,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23">
         <f>EDATE(A182,1)</f>
         <v>40603</v>
@@ -6200,7 +6201,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>298</v>
@@ -6220,7 +6221,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <f>EDATE(A184,1)</f>
         <v>40634</v>
@@ -6241,7 +6242,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23">
         <f t="shared" si="5"/>
         <v>40664</v>
@@ -6266,7 +6267,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23">
         <f>EDATE(A187,1)</f>
         <v>40695</v>
@@ -6291,7 +6292,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>45</v>
@@ -6313,7 +6314,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23">
         <f>EDATE(A188,1)</f>
         <v>40725</v>
@@ -6338,7 +6339,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <f t="shared" si="5"/>
         <v>40756</v>
@@ -6359,7 +6360,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <f t="shared" si="5"/>
         <v>40787</v>
@@ -6384,7 +6385,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>45</v>
@@ -6406,7 +6407,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23">
         <f>EDATE(A192,1)</f>
         <v>40817</v>
@@ -6431,7 +6432,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23">
         <f t="shared" si="5"/>
         <v>40848</v>
@@ -6452,7 +6453,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <f t="shared" si="5"/>
         <v>40878</v>
@@ -6479,7 +6480,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>50</v>
@@ -6499,7 +6500,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="46" t="s">
         <v>144</v>
       </c>
@@ -6517,7 +6518,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <f>EDATE(A196,1)</f>
         <v>40909</v>
@@ -6544,7 +6545,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23">
         <f t="shared" si="5"/>
         <v>40940</v>
@@ -6571,7 +6572,7 @@
         <v>41062</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>47</v>
@@ -6591,7 +6592,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
         <f>EDATE(A200,1)</f>
         <v>40969</v>
@@ -6616,7 +6617,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>48</v>
@@ -6638,7 +6639,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23">
         <f>EDATE(A202,1)</f>
         <v>41000</v>
@@ -6665,7 +6666,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23">
         <f t="shared" si="5"/>
         <v>41030</v>
@@ -6692,7 +6693,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
         <f t="shared" si="5"/>
         <v>41061</v>
@@ -6719,7 +6720,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>47</v>
@@ -6739,7 +6740,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>45</v>
@@ -6761,7 +6762,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>47</v>
@@ -6781,7 +6782,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>159</v>
@@ -6801,7 +6802,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <f>EDATE(A206,1)</f>
         <v>41091</v>
@@ -6826,7 +6827,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>164</v>
@@ -6846,7 +6847,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
         <f>EDATE(A211,1)</f>
         <v>41122</v>
@@ -6873,7 +6874,7 @@
         <v>40976</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>165</v>
@@ -6895,7 +6896,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23">
         <f>EDATE(A213,1)</f>
         <v>41153</v>
@@ -6922,7 +6923,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
         <f t="shared" si="5"/>
         <v>41183</v>
@@ -6943,7 +6944,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23">
         <f t="shared" si="5"/>
         <v>41214</v>
@@ -6970,7 +6971,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <f t="shared" si="5"/>
         <v>41244</v>
@@ -6997,7 +6998,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>136</v>
@@ -7019,7 +7020,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="46" t="s">
         <v>171</v>
       </c>
@@ -7037,7 +7038,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23">
         <f>EDATE(A218,1)</f>
         <v>41275</v>
@@ -7058,7 +7059,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23">
         <f t="shared" si="5"/>
         <v>41306</v>
@@ -7079,7 +7080,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <f t="shared" si="5"/>
         <v>41334</v>
@@ -7104,7 +7105,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23">
         <f t="shared" si="5"/>
         <v>41365</v>
@@ -7131,7 +7132,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23">
         <f t="shared" si="5"/>
         <v>41395</v>
@@ -7152,7 +7153,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23">
         <f t="shared" si="5"/>
         <v>41426</v>
@@ -7177,7 +7178,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>47</v>
@@ -7197,7 +7198,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <f>EDATE(A226,1)</f>
         <v>41456</v>
@@ -7224,7 +7225,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23">
         <f t="shared" si="5"/>
         <v>41487</v>
@@ -7245,7 +7246,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23">
         <f t="shared" si="5"/>
         <v>41518</v>
@@ -7266,7 +7267,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23">
         <f t="shared" si="5"/>
         <v>41548</v>
@@ -7293,7 +7294,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <f t="shared" si="5"/>
         <v>41579</v>
@@ -7314,7 +7315,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23">
         <f t="shared" si="5"/>
         <v>41609</v>
@@ -7335,7 +7336,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="46" t="s">
         <v>178</v>
       </c>
@@ -7353,7 +7354,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23">
         <f>EDATE(A233,1)</f>
         <v>41640</v>
@@ -7374,7 +7375,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <f t="shared" si="5"/>
         <v>41671</v>
@@ -7395,7 +7396,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23">
         <f t="shared" si="5"/>
         <v>41699</v>
@@ -7416,7 +7417,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23">
         <f t="shared" si="5"/>
         <v>41730</v>
@@ -7437,7 +7438,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23">
         <f t="shared" si="5"/>
         <v>41760</v>
@@ -7462,7 +7463,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>47</v>
@@ -7482,7 +7483,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>47</v>
@@ -7502,7 +7503,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23">
         <f>EDATE(A239,1)</f>
         <v>41791</v>
@@ -7523,7 +7524,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23">
         <f t="shared" si="5"/>
         <v>41821</v>
@@ -7544,7 +7545,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <f t="shared" si="5"/>
         <v>41852</v>
@@ -7565,7 +7566,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <f t="shared" si="5"/>
         <v>41883</v>
@@ -7590,7 +7591,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <f t="shared" si="5"/>
         <v>41913</v>
@@ -7615,7 +7616,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <f t="shared" si="5"/>
         <v>41944</v>
@@ -7642,7 +7643,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>183</v>
@@ -7664,7 +7665,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23">
         <f>EDATE(A247,1)</f>
         <v>41974</v>
@@ -7685,7 +7686,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="46" t="s">
         <v>186</v>
       </c>
@@ -7700,7 +7701,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <f>EDATE(A249,1)</f>
         <v>42005</v>
@@ -7721,7 +7722,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
         <f t="shared" si="5"/>
         <v>42036</v>
@@ -7742,7 +7743,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <f t="shared" si="5"/>
         <v>42064</v>
@@ -7769,7 +7770,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <f t="shared" si="5"/>
         <v>42095</v>
@@ -7796,7 +7797,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <f t="shared" si="5"/>
         <v>42125</v>
@@ -7823,7 +7824,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <f t="shared" ref="A256:A321" si="6">EDATE(A255,1)</f>
         <v>42156</v>
@@ -7848,7 +7849,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
         <f t="shared" si="6"/>
         <v>42186</v>
@@ -7869,7 +7870,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23">
         <f t="shared" si="6"/>
         <v>42217</v>
@@ -7896,7 +7897,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>193</v>
@@ -7916,7 +7917,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23">
         <f>EDATE(A258,1)</f>
         <v>42248</v>
@@ -7941,7 +7942,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <f t="shared" si="6"/>
         <v>42278</v>
@@ -7966,7 +7967,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <f t="shared" si="6"/>
         <v>42309</v>
@@ -7993,7 +7994,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>195</v>
@@ -8013,7 +8014,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="47"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23">
         <f>EDATE(A262,1)</f>
         <v>42339</v>
@@ -8038,7 +8039,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="46" t="s">
         <v>197</v>
       </c>
@@ -8056,7 +8057,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <f>EDATE(A264,1)</f>
         <v>42370</v>
@@ -8083,7 +8084,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>48</v>
@@ -8105,7 +8106,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>199</v>
@@ -8125,7 +8126,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <f>EDATE(A266,1)</f>
         <v>42401</v>
@@ -8150,7 +8151,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>201</v>
@@ -8170,7 +8171,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23">
         <f>EDATE(A269,1)</f>
         <v>42430</v>
@@ -8197,7 +8198,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>48</v>
@@ -8219,7 +8220,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>204</v>
@@ -8239,7 +8240,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23">
         <f>EDATE(A271,1)</f>
         <v>42461</v>
@@ -8266,7 +8267,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>206</v>
@@ -8286,7 +8287,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <f>EDATE(A274,1)</f>
         <v>42491</v>
@@ -8313,7 +8314,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>47</v>
@@ -8333,7 +8334,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>45</v>
@@ -8355,7 +8356,7 @@
         <v>42588</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>209</v>
@@ -8375,7 +8376,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="47"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <f>EDATE(A276,1)</f>
         <v>42522</v>
@@ -8400,7 +8401,7 @@
         <v>42497</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>210</v>
@@ -8420,7 +8421,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>45</v>
@@ -8442,7 +8443,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23">
         <f>EDATE(A280,1)</f>
         <v>42552</v>
@@ -8467,7 +8468,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23">
         <f t="shared" si="6"/>
         <v>42583</v>
@@ -8494,7 +8495,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>45</v>
@@ -8516,7 +8517,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>215</v>
@@ -8536,7 +8537,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23">
         <f>EDATE(A284,1)</f>
         <v>42614</v>
@@ -8563,7 +8564,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23">
         <f t="shared" si="6"/>
         <v>42644</v>
@@ -8590,7 +8591,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>45</v>
@@ -8612,7 +8613,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>217</v>
@@ -8632,7 +8633,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <f>EDATE(A288,1)</f>
         <v>42675</v>
@@ -8659,7 +8660,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>137</v>
@@ -8679,7 +8680,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23">
         <f>EDATE(A291,1)</f>
         <v>42705</v>
@@ -8706,7 +8707,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>48</v>
@@ -8728,7 +8729,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>223</v>
@@ -8748,7 +8749,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="46" t="s">
         <v>224</v>
       </c>
@@ -8766,7 +8767,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <f>EDATE(A293,1)</f>
         <v>42736</v>
@@ -8793,7 +8794,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>48</v>
@@ -8815,7 +8816,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>225</v>
@@ -8835,7 +8836,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23">
         <f>EDATE(A297,1)</f>
         <v>42767</v>
@@ -8862,7 +8863,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>48</v>
@@ -8884,7 +8885,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>45</v>
@@ -8906,7 +8907,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23">
         <f>EDATE(A300,1)</f>
         <v>42795</v>
@@ -8933,7 +8934,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23">
         <f t="shared" si="6"/>
         <v>42826</v>
@@ -8958,7 +8959,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>231</v>
@@ -8980,7 +8981,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>45</v>
@@ -9002,7 +9003,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>45</v>
@@ -9024,7 +9025,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>46</v>
@@ -9046,7 +9047,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
         <f>EDATE(A304,1)</f>
         <v>42856</v>
@@ -9073,7 +9074,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>48</v>
@@ -9095,7 +9096,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>236</v>
@@ -9115,7 +9116,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <f>EDATE(A309,1)</f>
         <v>42887</v>
@@ -9136,7 +9137,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <f>EDATE(A312,1)</f>
         <v>42917</v>
@@ -9159,7 +9160,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>46</v>
@@ -9181,7 +9182,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>45</v>
@@ -9203,7 +9204,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23">
         <f>EDATE(A313,1)</f>
         <v>42948</v>
@@ -9224,7 +9225,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
         <f t="shared" si="6"/>
         <v>42979</v>
@@ -9251,7 +9252,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>47</v>
@@ -9271,7 +9272,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>48</v>
@@ -9293,7 +9294,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23">
         <f>EDATE(A317,1)</f>
         <v>43009</v>
@@ -9314,7 +9315,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23">
         <f t="shared" si="6"/>
         <v>43040</v>
@@ -9341,7 +9342,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>45</v>
@@ -9363,7 +9364,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23">
         <f>EDATE(A321,1)</f>
         <v>43070</v>
@@ -9390,7 +9391,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>48</v>
@@ -9412,7 +9413,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>48</v>
@@ -9434,7 +9435,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>136</v>
@@ -9456,7 +9457,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>45</v>
@@ -9478,7 +9479,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="46" t="s">
         <v>44</v>
       </c>
@@ -9493,7 +9494,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="39">
         <v>43101</v>
       </c>
@@ -9513,7 +9514,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="39">
         <v>43132</v>
       </c>
@@ -9539,7 +9540,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="39">
         <v>43160</v>
       </c>
@@ -9565,7 +9566,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="39">
         <v>43191</v>
       </c>
@@ -9591,7 +9592,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="39">
         <v>43221</v>
       </c>
@@ -9617,7 +9618,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="39"/>
       <c r="B334" s="15" t="s">
         <v>47</v>
@@ -9637,7 +9638,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="39">
         <v>43252</v>
       </c>
@@ -9663,7 +9664,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="39"/>
       <c r="B336" s="15" t="s">
         <v>47</v>
@@ -9683,7 +9684,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="39">
         <v>43282</v>
       </c>
@@ -9709,7 +9710,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="39">
         <v>43313</v>
       </c>
@@ -9735,7 +9736,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="39"/>
       <c r="B339" s="20" t="s">
         <v>47</v>
@@ -9755,7 +9756,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="39">
         <v>43344</v>
       </c>
@@ -9775,7 +9776,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="39">
         <v>43374</v>
       </c>
@@ -9801,7 +9802,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="39">
         <v>43405</v>
       </c>
@@ -9821,7 +9822,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="39">
         <v>43435</v>
       </c>
@@ -9847,7 +9848,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="39"/>
       <c r="B344" s="20" t="s">
         <v>50</v>
@@ -9867,7 +9868,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="46" t="s">
         <v>49</v>
       </c>
@@ -9882,7 +9883,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="39">
         <v>43466</v>
       </c>
@@ -9908,7 +9909,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="39"/>
       <c r="B347" s="20" t="s">
         <v>52</v>
@@ -9930,7 +9931,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="39"/>
       <c r="B348" s="20" t="s">
         <v>53</v>
@@ -9952,7 +9953,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="39">
         <v>43497</v>
       </c>
@@ -9972,7 +9973,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="39">
         <v>43525</v>
       </c>
@@ -9998,7 +9999,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="39">
         <v>43556</v>
       </c>
@@ -10024,7 +10025,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="39">
         <v>43586</v>
       </c>
@@ -10044,7 +10045,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="39">
         <v>43617</v>
       </c>
@@ -10070,7 +10071,7 @@
         <v>43622</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="39"/>
       <c r="B354" s="20" t="s">
         <v>47</v>
@@ -10090,7 +10091,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="39"/>
       <c r="B355" s="20" t="s">
         <v>47</v>
@@ -10110,7 +10111,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="39">
         <v>43647</v>
       </c>
@@ -10136,7 +10137,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="39">
         <v>43678</v>
       </c>
@@ -10162,7 +10163,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="39">
         <v>43709</v>
       </c>
@@ -10188,7 +10189,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="39"/>
       <c r="B359" s="20" t="s">
         <v>45</v>
@@ -10210,7 +10211,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="39">
         <v>43739</v>
       </c>
@@ -10236,7 +10237,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="39"/>
       <c r="B361" s="20" t="s">
         <v>45</v>
@@ -10258,7 +10259,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="39">
         <v>43770</v>
       </c>
@@ -10284,7 +10285,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="39">
         <v>43800</v>
       </c>
@@ -10310,7 +10311,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="46" t="s">
         <v>54</v>
       </c>
@@ -10325,7 +10326,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="39">
         <v>43831</v>
       </c>
@@ -10351,7 +10352,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="39"/>
       <c r="B366" s="20" t="s">
         <v>46</v>
@@ -10373,7 +10374,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="39">
         <v>43862</v>
       </c>
@@ -10399,7 +10400,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="39">
         <v>43891</v>
       </c>
@@ -10419,7 +10420,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="39">
         <v>43922</v>
       </c>
@@ -10439,7 +10440,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="39">
         <v>43952</v>
       </c>
@@ -10459,7 +10460,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="39">
         <v>43983</v>
       </c>
@@ -10479,7 +10480,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="39">
         <v>44013</v>
       </c>
@@ -10503,7 +10504,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="39"/>
       <c r="B373" s="20" t="s">
         <v>45</v>
@@ -10525,7 +10526,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="39">
         <v>44044</v>
       </c>
@@ -10545,7 +10546,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="39">
         <v>44075</v>
       </c>
@@ -10571,7 +10572,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="39">
         <v>44105</v>
       </c>
@@ -10591,7 +10592,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="39">
         <v>44136</v>
       </c>
@@ -10611,7 +10612,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="39">
         <v>44166</v>
       </c>
@@ -10635,7 +10636,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="39"/>
       <c r="B379" s="20" t="s">
         <v>51</v>
@@ -10657,7 +10658,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="46" t="s">
         <v>55</v>
       </c>
@@ -10675,7 +10676,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="39">
         <v>44197</v>
       </c>
@@ -10701,7 +10702,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="39">
         <v>44228</v>
       </c>
@@ -10721,7 +10722,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="39">
         <v>44256</v>
       </c>
@@ -10747,7 +10748,7 @@
         <v>44472</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="39">
         <v>44287</v>
       </c>
@@ -10767,7 +10768,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="39">
         <v>44317</v>
       </c>
@@ -10787,7 +10788,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="39">
         <v>44348</v>
       </c>
@@ -10813,7 +10814,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="39"/>
       <c r="B387" s="20" t="s">
         <v>47</v>
@@ -10833,7 +10834,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="39">
         <v>44378</v>
       </c>
@@ -10859,7 +10860,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="39">
         <v>44409</v>
       </c>
@@ -10879,7 +10880,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="39">
         <v>44440</v>
       </c>
@@ -10899,7 +10900,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="39">
         <v>44470</v>
       </c>
@@ -10925,7 +10926,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="39">
         <v>44501</v>
       </c>
@@ -10945,7 +10946,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="39">
         <v>44531</v>
       </c>
@@ -10971,7 +10972,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="46" t="s">
         <v>56</v>
       </c>
@@ -10986,7 +10987,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="39">
         <v>44562</v>
       </c>
@@ -11006,7 +11007,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="39">
         <v>44593</v>
       </c>
@@ -11026,7 +11027,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="39">
         <v>44621</v>
       </c>
@@ -11046,7 +11047,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="39">
         <v>44652</v>
       </c>
@@ -11072,7 +11073,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="39">
         <v>44682</v>
       </c>
@@ -11096,7 +11097,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="39"/>
       <c r="B400" s="20" t="s">
         <v>47</v>
@@ -11116,7 +11117,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="39"/>
       <c r="B401" s="20" t="s">
         <v>135</v>
@@ -11136,7 +11137,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="47"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="39">
         <v>44713</v>
       </c>
@@ -11160,7 +11161,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="39">
         <v>44743</v>
       </c>
@@ -11184,7 +11185,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="39">
         <v>44774</v>
       </c>
@@ -11210,7 +11211,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="39"/>
       <c r="B405" s="20" t="s">
         <v>318</v>
@@ -11230,7 +11231,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="39">
         <v>44805</v>
       </c>
@@ -11256,7 +11257,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="39"/>
       <c r="B407" s="20" t="s">
         <v>316</v>
@@ -11276,7 +11277,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="47"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="39">
         <v>44835</v>
       </c>
@@ -11300,7 +11301,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="39"/>
       <c r="B409" s="20" t="s">
         <v>45</v>
@@ -11322,7 +11323,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="39"/>
       <c r="B410" s="20" t="s">
         <v>45</v>
@@ -11344,7 +11345,7 @@
         <v>44860</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="39"/>
       <c r="B411" s="20" t="s">
         <v>314</v>
@@ -11364,7 +11365,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="47"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="39">
         <v>44866</v>
       </c>
@@ -11388,7 +11389,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="39">
         <v>44896</v>
       </c>
@@ -11414,7 +11415,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="39"/>
       <c r="B414" s="20" t="s">
         <v>313</v>
@@ -11434,7 +11435,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="46" t="s">
         <v>57</v>
       </c>
@@ -11452,7 +11453,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="39">
         <v>44927</v>
       </c>
@@ -11476,7 +11477,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="39"/>
       <c r="B417" s="20" t="s">
         <v>45</v>
@@ -11498,7 +11499,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="39"/>
       <c r="B418" s="20" t="s">
         <v>69</v>
@@ -11518,7 +11519,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="47"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="39">
         <v>44958</v>
       </c>
@@ -11544,7 +11545,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="39"/>
       <c r="B420" s="20" t="s">
         <v>48</v>
@@ -11566,7 +11567,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="39"/>
       <c r="B421" s="20" t="s">
         <v>135</v>
@@ -11586,7 +11587,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="39">
         <v>44986</v>
       </c>
@@ -11612,7 +11613,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="39"/>
       <c r="B423" s="20" t="s">
         <v>333</v>
@@ -11634,7 +11635,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="39"/>
       <c r="B424" s="20" t="s">
         <v>335</v>
@@ -11654,7 +11655,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="39">
         <v>45017</v>
       </c>
@@ -11680,7 +11681,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="39">
         <v>45047</v>
       </c>
@@ -11706,7 +11707,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="39">
         <v>45078</v>
       </c>
@@ -11732,7 +11733,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="39"/>
       <c r="B428" s="20" t="s">
         <v>48</v>
@@ -11754,7 +11755,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="39"/>
       <c r="B429" s="20" t="s">
         <v>47</v>
@@ -11774,7 +11775,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="39">
         <v>45108</v>
       </c>
@@ -11800,7 +11801,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="39"/>
       <c r="B431" s="20" t="s">
         <v>48</v>
@@ -11822,7 +11823,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="39">
         <v>45139</v>
       </c>
@@ -11848,7 +11849,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="39">
         <v>45170</v>
       </c>
@@ -11874,7 +11875,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="39"/>
       <c r="B434" s="20" t="s">
         <v>48</v>
@@ -11896,7 +11897,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="39"/>
       <c r="B435" s="20" t="s">
         <v>53</v>
@@ -11918,7 +11919,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="39"/>
       <c r="B436" s="20" t="s">
         <v>142</v>
@@ -11938,7 +11939,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="39">
         <v>45200</v>
       </c>
@@ -11964,7 +11965,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="39"/>
       <c r="B438" s="20" t="s">
         <v>332</v>
@@ -11984,7 +11985,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="47"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="39">
         <v>45231</v>
       </c>
@@ -12010,7 +12011,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="39"/>
       <c r="B440" s="20" t="s">
         <v>331</v>
@@ -12030,7 +12031,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="39">
         <v>45261</v>
       </c>
@@ -12054,7 +12055,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="39"/>
       <c r="B442" s="20" t="s">
         <v>45</v>
@@ -12076,7 +12077,7 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="39"/>
       <c r="B443" s="20" t="s">
         <v>48</v>
@@ -12098,7 +12099,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="46" t="s">
         <v>327</v>
       </c>
@@ -12116,25 +12117,33 @@
       <c r="J444" s="11"/>
       <c r="K444" s="47"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="39">
         <v>45292</v>
       </c>
-      <c r="B445" s="20"/>
-      <c r="C445" s="13"/>
+      <c r="B445" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C445" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D445" s="38"/>
       <c r="E445" s="9"/>
       <c r="F445" s="20"/>
-      <c r="G445" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H445" s="38"/>
+      <c r="G445" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H445" s="38">
+        <v>1</v>
+      </c>
       <c r="I445" s="9"/>
       <c r="J445" s="11"/>
-      <c r="K445" s="20"/>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K445" s="47">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="39">
         <v>45323</v>
       </c>
@@ -12152,7 +12161,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="39">
         <v>45352</v>
       </c>
@@ -12170,7 +12179,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="39">
         <v>45383</v>
       </c>
@@ -12188,7 +12197,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="39">
         <v>45413</v>
       </c>
@@ -12206,7 +12215,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="39">
         <v>45444</v>
       </c>
@@ -12224,7 +12233,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="39">
         <v>45474</v>
       </c>
@@ -12242,7 +12251,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="39">
         <v>45505</v>
       </c>
@@ -12260,7 +12269,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="39">
         <v>45536</v>
       </c>
@@ -12278,7 +12287,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="39">
         <v>45566</v>
       </c>
@@ -12296,7 +12305,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="39">
         <v>45597</v>
       </c>
@@ -12314,7 +12323,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="39">
         <v>45627</v>
       </c>
@@ -12332,7 +12341,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="39">
         <v>45658</v>
       </c>
@@ -12350,7 +12359,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="39">
         <v>45689</v>
       </c>
@@ -12368,7 +12377,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="39">
         <v>45717</v>
       </c>
@@ -12386,7 +12395,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="39">
         <v>45748</v>
       </c>
@@ -12404,7 +12413,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="39">
         <v>45778</v>
       </c>
@@ -12422,7 +12431,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="39">
         <v>45809</v>
       </c>
@@ -12440,7 +12449,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="39">
         <v>45839</v>
       </c>
@@ -12458,7 +12467,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="39">
         <v>45870</v>
       </c>
@@ -12476,7 +12485,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="39">
         <v>45901</v>
       </c>
@@ -12494,7 +12503,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="39">
         <v>45931</v>
       </c>
@@ -12512,7 +12521,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="39">
         <v>45962</v>
       </c>
@@ -12530,7 +12539,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="39">
         <v>45992</v>
       </c>
@@ -12548,7 +12557,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="39">
         <v>46023</v>
       </c>
@@ -12566,7 +12575,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="39">
         <v>46054</v>
       </c>
@@ -12584,7 +12593,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="39">
         <v>46082</v>
       </c>
@@ -12602,7 +12611,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="39">
         <v>46113</v>
       </c>
@@ -12620,7 +12629,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="39">
         <v>46143</v>
       </c>
@@ -12638,7 +12647,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="39">
         <v>46174</v>
       </c>
@@ -12656,7 +12665,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="39">
         <v>46204</v>
       </c>
@@ -12674,7 +12683,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="39">
         <v>46235</v>
       </c>
@@ -12692,7 +12701,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="39">
         <v>46266</v>
       </c>
@@ -12710,7 +12719,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="39">
         <v>46296</v>
       </c>
@@ -12728,7 +12737,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="39">
         <v>46327</v>
       </c>
@@ -12746,7 +12755,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="39">
         <v>46357</v>
       </c>
@@ -12764,7 +12773,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="39">
         <v>46388</v>
       </c>
@@ -12782,7 +12791,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="39">
         <v>46419</v>
       </c>
@@ -12800,7 +12809,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="39">
         <v>46447</v>
       </c>
@@ -12818,7 +12827,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="39">
         <v>46478</v>
       </c>
@@ -12836,7 +12845,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="39">
         <v>46508</v>
       </c>
@@ -12854,7 +12863,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="39"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12885,10 +12894,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12911,28 +12920,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -12945,7 +12954,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12974,7 +12983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -13002,17 +13011,17 @@
         <v>0.2919999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -13033,7 +13042,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -13060,7 +13069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -13086,7 +13095,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -13112,7 +13121,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -13138,7 +13147,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -13164,7 +13173,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -13190,7 +13199,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -13216,7 +13225,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -13242,7 +13251,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -13262,7 +13271,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -13282,7 +13291,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -13302,7 +13311,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -13323,7 +13332,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -13344,7 +13353,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -13365,7 +13374,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -13386,7 +13395,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -13407,7 +13416,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -13428,7 +13437,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -13449,7 +13458,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -13470,7 +13479,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -13491,7 +13500,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -13512,7 +13521,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -13533,7 +13542,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -13554,7 +13563,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -13575,7 +13584,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -13596,7 +13605,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -13617,7 +13626,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -13638,7 +13647,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -13659,7 +13668,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -13680,7 +13689,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -13701,7 +13710,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -13722,7 +13731,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -13731,7 +13740,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -13740,7 +13749,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -13749,7 +13758,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -13758,7 +13767,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -13767,7 +13776,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -13776,7 +13785,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -13785,7 +13794,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -13794,7 +13803,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -13803,7 +13812,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -13812,7 +13821,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -13821,7 +13830,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -13830,7 +13839,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -13839,7 +13848,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -13848,7 +13857,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -13857,7 +13866,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -13866,7 +13875,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -13875,7 +13884,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -13884,7 +13893,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -13893,7 +13902,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -13902,7 +13911,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -13911,7 +13920,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -13920,7 +13929,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -13929,7 +13938,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -13938,7 +13947,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -13947,7 +13956,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -13956,7 +13965,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -13965,7 +13974,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -13974,7 +13983,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -13983,7 +13992,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CCT/PEREY, AIRENE.xlsx
+++ b/REGULAR/CCT/PEREY, AIRENE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2304E0-DE26-4886-BE6A-DFF45B604DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="338">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1042,12 +1041,18 @@
   </si>
   <si>
     <t>UT(0-0-47)</t>
+  </si>
+  <si>
+    <t>02/05,06/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1732,7 +1737,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1749,26 +1754,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K486" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K486" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K487" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K487"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2075,34 +2080,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M486"/>
+  <dimension ref="A2:M487"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A437" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A437" activePane="bottomLeft"/>
       <selection activeCell="M10" sqref="M10"/>
-      <selection pane="bottomLeft" activeCell="K446" sqref="K446"/>
+      <selection pane="bottomLeft" activeCell="G451" sqref="G451"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2123,7 +2128,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2145,7 +2150,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2167,7 +2172,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2175,7 +2180,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2188,7 +2193,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2205,7 +2210,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2259,16 +2264,16 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>113.04200000000003</v>
+        <v>110.04200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
       <c r="M9" s="44">
         <f>SUM(E9,I9)</f>
-        <v>176.12900000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>173.12900000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>58</v>
       </c>
@@ -2290,7 +2295,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>36549</v>
       </c>
@@ -2310,7 +2315,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>36557</v>
       </c>
@@ -2330,7 +2335,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>36586</v>
@@ -2351,7 +2356,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A83" si="0">EDATE(A13,1)</f>
         <v>36617</v>
@@ -2372,7 +2377,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>36647</v>
@@ -2393,7 +2398,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>36678</v>
@@ -2414,7 +2419,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>36708</v>
@@ -2435,7 +2440,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>36739</v>
@@ -2456,7 +2461,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>36770</v>
@@ -2477,7 +2482,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>36800</v>
@@ -2498,7 +2503,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>36831</v>
@@ -2525,7 +2530,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>36861</v>
@@ -2550,7 +2555,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
         <v>61</v>
       </c>
@@ -2568,7 +2573,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f>EDATE(A22,1)</f>
         <v>36892</v>
@@ -2589,7 +2594,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="0"/>
         <v>36923</v>
@@ -2610,7 +2615,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>36951</v>
@@ -2631,7 +2636,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>36982</v>
@@ -2652,7 +2657,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>37012</v>
@@ -2673,7 +2678,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -2694,7 +2699,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -2719,7 +2724,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -2740,7 +2745,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>37135</v>
@@ -2765,7 +2770,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>37165</v>
@@ -2792,7 +2797,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>66</v>
@@ -2812,7 +2817,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f>EDATE(A33,1)</f>
         <v>37196</v>
@@ -2839,7 +2844,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>68</v>
@@ -2859,7 +2864,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>EDATE(A35,1)</f>
         <v>37226</v>
@@ -2880,7 +2885,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="46" t="s">
         <v>64</v>
       </c>
@@ -2898,7 +2903,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f>EDATE(A37,1)</f>
         <v>37257</v>
@@ -2919,7 +2924,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="0"/>
         <v>37288</v>
@@ -2944,7 +2949,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>37316</v>
@@ -2965,7 +2970,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>37347</v>
@@ -2986,7 +2991,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="0"/>
         <v>37377</v>
@@ -3011,7 +3016,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f t="shared" si="0"/>
         <v>37408</v>
@@ -3032,7 +3037,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>37438</v>
@@ -3057,7 +3062,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>37469</v>
@@ -3078,7 +3083,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>37500</v>
@@ -3103,7 +3108,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>37530</v>
@@ -3124,7 +3129,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>37561</v>
@@ -3151,7 +3156,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f t="shared" si="0"/>
         <v>37591</v>
@@ -3172,7 +3177,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="46" t="s">
         <v>72</v>
       </c>
@@ -3190,7 +3195,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f>EDATE(A50,1)</f>
         <v>37622</v>
@@ -3211,7 +3216,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" si="0"/>
         <v>37653</v>
@@ -3232,7 +3237,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>37681</v>
@@ -3257,7 +3262,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <f t="shared" si="0"/>
         <v>37712</v>
@@ -3278,7 +3283,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f t="shared" si="0"/>
         <v>37742</v>
@@ -3299,7 +3304,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -3320,7 +3325,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -3341,7 +3346,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -3362,7 +3367,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -3383,7 +3388,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>37895</v>
@@ -3404,7 +3409,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f t="shared" si="0"/>
         <v>37926</v>
@@ -3425,7 +3430,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f t="shared" si="0"/>
         <v>37956</v>
@@ -3450,7 +3455,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="46" t="s">
         <v>74</v>
       </c>
@@ -3468,7 +3473,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f>EDATE(A63,1)</f>
         <v>37987</v>
@@ -3489,7 +3494,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" si="0"/>
         <v>38018</v>
@@ -3510,7 +3515,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="0"/>
         <v>38047</v>
@@ -3531,7 +3536,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="0"/>
         <v>38078</v>
@@ -3556,7 +3561,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <f t="shared" si="0"/>
         <v>38108</v>
@@ -3577,7 +3582,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f t="shared" si="0"/>
         <v>38139</v>
@@ -3598,7 +3603,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f t="shared" si="0"/>
         <v>38169</v>
@@ -3619,7 +3624,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f t="shared" si="0"/>
         <v>38200</v>
@@ -3640,7 +3645,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="0"/>
         <v>38231</v>
@@ -3661,7 +3666,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f t="shared" si="0"/>
         <v>38261</v>
@@ -3682,7 +3687,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f>EDATE(A74,1)</f>
         <v>38292</v>
@@ -3703,7 +3708,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f t="shared" si="0"/>
         <v>38322</v>
@@ -3728,7 +3733,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="46" t="s">
         <v>75</v>
       </c>
@@ -3746,7 +3751,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f>EDATE(A76,1)</f>
         <v>38353</v>
@@ -3767,7 +3772,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" si="0"/>
         <v>38384</v>
@@ -3788,7 +3793,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="0"/>
         <v>38412</v>
@@ -3809,7 +3814,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="0"/>
         <v>38443</v>
@@ -3830,7 +3835,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f t="shared" si="0"/>
         <v>38473</v>
@@ -3851,7 +3856,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" si="0"/>
         <v>38504</v>
@@ -3876,7 +3881,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>46</v>
@@ -3898,7 +3903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f>EDATE(A83,1)</f>
         <v>38534</v>
@@ -3919,7 +3924,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f t="shared" ref="A86:A98" si="1">EDATE(A85,1)</f>
         <v>38565</v>
@@ -3940,7 +3945,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -3961,7 +3966,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -3988,7 +3993,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f t="shared" si="1"/>
         <v>38657</v>
@@ -4009,7 +4014,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f t="shared" si="1"/>
         <v>38687</v>
@@ -4030,7 +4035,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="46" t="s">
         <v>80</v>
       </c>
@@ -4048,7 +4053,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f>EDATE(A90,1)</f>
         <v>38718</v>
@@ -4069,7 +4074,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" si="1"/>
         <v>38749</v>
@@ -4090,7 +4095,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f t="shared" si="1"/>
         <v>38777</v>
@@ -4111,7 +4116,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f t="shared" si="1"/>
         <v>38808</v>
@@ -4132,7 +4137,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="1"/>
         <v>38838</v>
@@ -4153,7 +4158,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f t="shared" si="1"/>
         <v>38869</v>
@@ -4174,7 +4179,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f t="shared" si="1"/>
         <v>38899</v>
@@ -4199,7 +4204,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>84</v>
@@ -4219,7 +4224,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f>EDATE(A98,1)</f>
         <v>38930</v>
@@ -4244,7 +4249,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <f>EDATE(A100,1)</f>
         <v>38961</v>
@@ -4271,7 +4276,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f t="shared" ref="A102:A120" si="2">EDATE(A101,1)</f>
         <v>38991</v>
@@ -4298,7 +4303,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <f t="shared" si="2"/>
         <v>39022</v>
@@ -4323,7 +4328,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f t="shared" si="2"/>
         <v>39052</v>
@@ -4348,7 +4353,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="46" t="s">
         <v>83</v>
       </c>
@@ -4366,7 +4371,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f>EDATE(A104,1)</f>
         <v>39083</v>
@@ -4391,7 +4396,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f t="shared" si="2"/>
         <v>39114</v>
@@ -4418,7 +4423,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>91</v>
@@ -4438,7 +4443,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f>EDATE(A107,1)</f>
         <v>39142</v>
@@ -4463,7 +4468,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f t="shared" si="2"/>
         <v>39173</v>
@@ -4488,7 +4493,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f t="shared" si="2"/>
         <v>39203</v>
@@ -4515,7 +4520,7 @@
         <v>39360</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>94</v>
@@ -4535,7 +4540,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="47"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f>EDATE(A111,1)</f>
         <v>39234</v>
@@ -4560,7 +4565,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f t="shared" si="2"/>
         <v>39264</v>
@@ -4585,7 +4590,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>96</v>
@@ -4605,7 +4610,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f>EDATE(A114,1)</f>
         <v>39295</v>
@@ -4630,7 +4635,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -4651,7 +4656,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f t="shared" si="2"/>
         <v>39356</v>
@@ -4678,7 +4683,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f t="shared" si="2"/>
         <v>39387</v>
@@ -4705,7 +4710,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f t="shared" si="2"/>
         <v>39417</v>
@@ -4726,7 +4731,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="46" t="s">
         <v>104</v>
       </c>
@@ -4744,7 +4749,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f>EDATE(A120,1)</f>
         <v>39448</v>
@@ -4765,7 +4770,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f>EDATE(A122,1)</f>
         <v>39479</v>
@@ -4786,7 +4791,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <f t="shared" ref="A124:A134" si="3">EDATE(A123,1)</f>
         <v>39508</v>
@@ -4807,7 +4812,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f t="shared" si="3"/>
         <v>39539</v>
@@ -4828,7 +4833,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <f>EDATE(A125,1)</f>
         <v>39569</v>
@@ -4853,7 +4858,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>47</v>
@@ -4873,7 +4878,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f>EDATE(A126,1)</f>
         <v>39600</v>
@@ -4894,7 +4899,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f t="shared" si="3"/>
         <v>39630</v>
@@ -4915,7 +4920,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <f t="shared" si="3"/>
         <v>39661</v>
@@ -4936,7 +4941,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f t="shared" si="3"/>
         <v>39692</v>
@@ -4963,7 +4968,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>45</v>
@@ -4985,7 +4990,7 @@
         <v>39638</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f>EDATE(A131,1)</f>
         <v>39722</v>
@@ -5012,7 +5017,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f t="shared" si="3"/>
         <v>39753</v>
@@ -5037,7 +5042,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f>EDATE(A134,1)</f>
         <v>39783</v>
@@ -5062,7 +5067,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="46" t="s">
         <v>111</v>
       </c>
@@ -5080,7 +5085,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f>EDATE(A135,1)</f>
         <v>39814</v>
@@ -5107,7 +5112,7 @@
         <v>40148</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>112</v>
@@ -5127,7 +5132,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="47"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f>EDATE(A137,1)</f>
         <v>39845</v>
@@ -5154,7 +5159,7 @@
         <v>40088</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>113</v>
@@ -5174,7 +5179,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="47"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <f>EDATE(A139,1)</f>
         <v>39873</v>
@@ -5201,7 +5206,7 @@
         <v>40120</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>114</v>
@@ -5221,7 +5226,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="47"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <f>EDATE(A141,1)</f>
         <v>39904</v>
@@ -5248,7 +5253,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>117</v>
@@ -5268,7 +5273,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f>EDATE(A143,1)</f>
         <v>39934</v>
@@ -5295,7 +5300,7 @@
         <v>40030</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>45</v>
@@ -5317,7 +5322,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f>EDATE(A145,1)</f>
         <v>39965</v>
@@ -5342,7 +5347,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <f>EDATE(A147,1)</f>
         <v>39995</v>
@@ -5367,7 +5372,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>45</v>
@@ -5387,7 +5392,7 @@
         <v>39971</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>45</v>
@@ -5407,7 +5412,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>66</v>
@@ -5427,7 +5432,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <f>EDATE(A148,1)</f>
         <v>40026</v>
@@ -5454,7 +5459,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <f t="shared" ref="A153:A157" si="4">EDATE(A152,1)</f>
         <v>40057</v>
@@ -5479,7 +5484,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>45</v>
@@ -5501,7 +5506,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>40087</v>
@@ -5526,7 +5531,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <f t="shared" si="4"/>
         <v>40118</v>
@@ -5551,7 +5556,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <f t="shared" si="4"/>
         <v>40148</v>
@@ -5576,7 +5581,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="46" t="s">
         <v>127</v>
       </c>
@@ -5594,7 +5599,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f>EDATE(A157,1)</f>
         <v>40179</v>
@@ -5621,7 +5626,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>45</v>
@@ -5643,7 +5648,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>204</v>
@@ -5663,7 +5668,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <f>EDATE(A159,1)</f>
         <v>40210</v>
@@ -5690,7 +5695,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>295</v>
@@ -5710,7 +5715,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <f>EDATE(A162,1)</f>
         <v>40238</v>
@@ -5737,7 +5742,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>128</v>
@@ -5757,7 +5762,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <f>EDATE(A164,1)</f>
         <v>40269</v>
@@ -5782,7 +5787,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <f t="shared" ref="A167:A255" si="5">EDATE(A166,1)</f>
         <v>40299</v>
@@ -5809,7 +5814,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>131</v>
@@ -5829,7 +5834,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <f>EDATE(A167,1)</f>
         <v>40330</v>
@@ -5854,7 +5859,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>45</v>
@@ -5876,7 +5881,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>47</v>
@@ -5898,7 +5903,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <f>EDATE(A169,1)</f>
         <v>40360</v>
@@ -5923,7 +5928,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <f t="shared" si="5"/>
         <v>40391</v>
@@ -5950,7 +5955,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>137</v>
@@ -5970,7 +5975,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f>EDATE(A173,1)</f>
         <v>40422</v>
@@ -5997,7 +6002,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>47</v>
@@ -6017,7 +6022,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <f>EDATE(A175,1)</f>
         <v>40452</v>
@@ -6038,7 +6043,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <f t="shared" si="5"/>
         <v>40483</v>
@@ -6059,7 +6064,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <f t="shared" si="5"/>
         <v>40513</v>
@@ -6084,7 +6089,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="46" t="s">
         <v>141</v>
       </c>
@@ -6102,7 +6107,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <f>EDATE(A179,1)</f>
         <v>40544</v>
@@ -6127,7 +6132,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <f t="shared" si="5"/>
         <v>40575</v>
@@ -6154,7 +6159,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>143</v>
@@ -6174,7 +6179,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <f>EDATE(A182,1)</f>
         <v>40603</v>
@@ -6201,7 +6206,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>298</v>
@@ -6221,7 +6226,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <f>EDATE(A184,1)</f>
         <v>40634</v>
@@ -6242,7 +6247,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <f t="shared" si="5"/>
         <v>40664</v>
@@ -6267,7 +6272,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <f>EDATE(A187,1)</f>
         <v>40695</v>
@@ -6292,7 +6297,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>45</v>
@@ -6314,7 +6319,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <f>EDATE(A188,1)</f>
         <v>40725</v>
@@ -6339,7 +6344,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <f t="shared" si="5"/>
         <v>40756</v>
@@ -6360,7 +6365,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <f t="shared" si="5"/>
         <v>40787</v>
@@ -6385,7 +6390,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>45</v>
@@ -6407,7 +6412,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <f>EDATE(A192,1)</f>
         <v>40817</v>
@@ -6432,7 +6437,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <f t="shared" si="5"/>
         <v>40848</v>
@@ -6453,7 +6458,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f t="shared" si="5"/>
         <v>40878</v>
@@ -6480,7 +6485,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>50</v>
@@ -6500,7 +6505,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="46" t="s">
         <v>144</v>
       </c>
@@ -6518,7 +6523,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <f>EDATE(A196,1)</f>
         <v>40909</v>
@@ -6545,7 +6550,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <f t="shared" si="5"/>
         <v>40940</v>
@@ -6572,7 +6577,7 @@
         <v>41062</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>47</v>
@@ -6592,7 +6597,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <f>EDATE(A200,1)</f>
         <v>40969</v>
@@ -6617,7 +6622,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>48</v>
@@ -6639,7 +6644,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <f>EDATE(A202,1)</f>
         <v>41000</v>
@@ -6666,7 +6671,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <f t="shared" si="5"/>
         <v>41030</v>
@@ -6693,7 +6698,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <f t="shared" si="5"/>
         <v>41061</v>
@@ -6720,7 +6725,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>47</v>
@@ -6740,7 +6745,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>45</v>
@@ -6762,7 +6767,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>47</v>
@@ -6782,7 +6787,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>159</v>
@@ -6802,7 +6807,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <f>EDATE(A206,1)</f>
         <v>41091</v>
@@ -6827,7 +6832,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>164</v>
@@ -6847,7 +6852,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <f>EDATE(A211,1)</f>
         <v>41122</v>
@@ -6874,7 +6879,7 @@
         <v>40976</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>165</v>
@@ -6896,7 +6901,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <f>EDATE(A213,1)</f>
         <v>41153</v>
@@ -6923,7 +6928,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <f t="shared" si="5"/>
         <v>41183</v>
@@ -6944,7 +6949,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <f t="shared" si="5"/>
         <v>41214</v>
@@ -6971,7 +6976,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <f t="shared" si="5"/>
         <v>41244</v>
@@ -6998,7 +7003,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>136</v>
@@ -7020,7 +7025,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="46" t="s">
         <v>171</v>
       </c>
@@ -7038,7 +7043,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <f>EDATE(A218,1)</f>
         <v>41275</v>
@@ -7059,7 +7064,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <f t="shared" si="5"/>
         <v>41306</v>
@@ -7080,7 +7085,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <f t="shared" si="5"/>
         <v>41334</v>
@@ -7105,7 +7110,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <f t="shared" si="5"/>
         <v>41365</v>
@@ -7132,7 +7137,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <f t="shared" si="5"/>
         <v>41395</v>
@@ -7153,7 +7158,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <f t="shared" si="5"/>
         <v>41426</v>
@@ -7178,7 +7183,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>47</v>
@@ -7198,7 +7203,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <f>EDATE(A226,1)</f>
         <v>41456</v>
@@ -7225,7 +7230,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <f t="shared" si="5"/>
         <v>41487</v>
@@ -7246,7 +7251,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <f t="shared" si="5"/>
         <v>41518</v>
@@ -7267,7 +7272,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <f t="shared" si="5"/>
         <v>41548</v>
@@ -7294,7 +7299,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f t="shared" si="5"/>
         <v>41579</v>
@@ -7315,7 +7320,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <f t="shared" si="5"/>
         <v>41609</v>
@@ -7336,7 +7341,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="46" t="s">
         <v>178</v>
       </c>
@@ -7354,7 +7359,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <f>EDATE(A233,1)</f>
         <v>41640</v>
@@ -7375,7 +7380,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f t="shared" si="5"/>
         <v>41671</v>
@@ -7396,7 +7401,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <f t="shared" si="5"/>
         <v>41699</v>
@@ -7417,7 +7422,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <f t="shared" si="5"/>
         <v>41730</v>
@@ -7438,7 +7443,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <f t="shared" si="5"/>
         <v>41760</v>
@@ -7463,7 +7468,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>47</v>
@@ -7483,7 +7488,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>47</v>
@@ -7503,7 +7508,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <f>EDATE(A239,1)</f>
         <v>41791</v>
@@ -7524,7 +7529,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <f t="shared" si="5"/>
         <v>41821</v>
@@ -7545,7 +7550,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <f t="shared" si="5"/>
         <v>41852</v>
@@ -7566,7 +7571,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <f t="shared" si="5"/>
         <v>41883</v>
@@ -7591,7 +7596,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <f t="shared" si="5"/>
         <v>41913</v>
@@ -7616,7 +7621,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <f t="shared" si="5"/>
         <v>41944</v>
@@ -7643,7 +7648,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>183</v>
@@ -7665,7 +7670,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <f>EDATE(A247,1)</f>
         <v>41974</v>
@@ -7686,7 +7691,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="46" t="s">
         <v>186</v>
       </c>
@@ -7701,7 +7706,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <f>EDATE(A249,1)</f>
         <v>42005</v>
@@ -7722,7 +7727,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <f t="shared" si="5"/>
         <v>42036</v>
@@ -7743,7 +7748,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <f t="shared" si="5"/>
         <v>42064</v>
@@ -7770,7 +7775,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f t="shared" si="5"/>
         <v>42095</v>
@@ -7797,7 +7802,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <f t="shared" si="5"/>
         <v>42125</v>
@@ -7824,7 +7829,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <f t="shared" ref="A256:A321" si="6">EDATE(A255,1)</f>
         <v>42156</v>
@@ -7849,7 +7854,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <f t="shared" si="6"/>
         <v>42186</v>
@@ -7870,7 +7875,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <f t="shared" si="6"/>
         <v>42217</v>
@@ -7897,7 +7902,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>193</v>
@@ -7917,7 +7922,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <f>EDATE(A258,1)</f>
         <v>42248</v>
@@ -7942,7 +7947,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <f t="shared" si="6"/>
         <v>42278</v>
@@ -7967,7 +7972,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <f t="shared" si="6"/>
         <v>42309</v>
@@ -7994,7 +7999,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>195</v>
@@ -8014,7 +8019,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="47"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <f>EDATE(A262,1)</f>
         <v>42339</v>
@@ -8039,7 +8044,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="46" t="s">
         <v>197</v>
       </c>
@@ -8057,7 +8062,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <f>EDATE(A264,1)</f>
         <v>42370</v>
@@ -8084,7 +8089,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>48</v>
@@ -8106,7 +8111,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>199</v>
@@ -8126,7 +8131,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <f>EDATE(A266,1)</f>
         <v>42401</v>
@@ -8151,7 +8156,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>201</v>
@@ -8171,7 +8176,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <f>EDATE(A269,1)</f>
         <v>42430</v>
@@ -8198,7 +8203,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>48</v>
@@ -8220,7 +8225,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>204</v>
@@ -8240,7 +8245,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <f>EDATE(A271,1)</f>
         <v>42461</v>
@@ -8267,7 +8272,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>206</v>
@@ -8287,7 +8292,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <f>EDATE(A274,1)</f>
         <v>42491</v>
@@ -8314,7 +8319,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>47</v>
@@ -8334,7 +8339,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>45</v>
@@ -8356,7 +8361,7 @@
         <v>42588</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>209</v>
@@ -8376,7 +8381,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="47"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f>EDATE(A276,1)</f>
         <v>42522</v>
@@ -8401,7 +8406,7 @@
         <v>42497</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>210</v>
@@ -8421,7 +8426,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>45</v>
@@ -8443,7 +8448,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <f>EDATE(A280,1)</f>
         <v>42552</v>
@@ -8468,7 +8473,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f t="shared" si="6"/>
         <v>42583</v>
@@ -8495,7 +8500,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>45</v>
@@ -8517,7 +8522,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>215</v>
@@ -8537,7 +8542,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <f>EDATE(A284,1)</f>
         <v>42614</v>
@@ -8564,7 +8569,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <f t="shared" si="6"/>
         <v>42644</v>
@@ -8591,7 +8596,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>45</v>
@@ -8613,7 +8618,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>217</v>
@@ -8633,7 +8638,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <f>EDATE(A288,1)</f>
         <v>42675</v>
@@ -8660,7 +8665,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>137</v>
@@ -8680,7 +8685,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <f>EDATE(A291,1)</f>
         <v>42705</v>
@@ -8707,7 +8712,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>48</v>
@@ -8729,7 +8734,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>223</v>
@@ -8749,7 +8754,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="46" t="s">
         <v>224</v>
       </c>
@@ -8767,7 +8772,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f>EDATE(A293,1)</f>
         <v>42736</v>
@@ -8794,7 +8799,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>48</v>
@@ -8816,7 +8821,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>225</v>
@@ -8836,7 +8841,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <f>EDATE(A297,1)</f>
         <v>42767</v>
@@ -8863,7 +8868,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>48</v>
@@ -8885,7 +8890,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>45</v>
@@ -8907,7 +8912,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <f>EDATE(A300,1)</f>
         <v>42795</v>
@@ -8934,7 +8939,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <f t="shared" si="6"/>
         <v>42826</v>
@@ -8959,7 +8964,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>231</v>
@@ -8981,7 +8986,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>45</v>
@@ -9003,7 +9008,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>45</v>
@@ -9025,7 +9030,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>46</v>
@@ -9047,7 +9052,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f>EDATE(A304,1)</f>
         <v>42856</v>
@@ -9074,7 +9079,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>48</v>
@@ -9096,7 +9101,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>236</v>
@@ -9116,7 +9121,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <f>EDATE(A309,1)</f>
         <v>42887</v>
@@ -9137,7 +9142,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f>EDATE(A312,1)</f>
         <v>42917</v>
@@ -9160,7 +9165,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>46</v>
@@ -9182,7 +9187,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>45</v>
@@ -9204,7 +9209,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <f>EDATE(A313,1)</f>
         <v>42948</v>
@@ -9225,7 +9230,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <f t="shared" si="6"/>
         <v>42979</v>
@@ -9252,7 +9257,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>47</v>
@@ -9272,7 +9277,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>48</v>
@@ -9294,7 +9299,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <f>EDATE(A317,1)</f>
         <v>43009</v>
@@ -9315,7 +9320,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <f t="shared" si="6"/>
         <v>43040</v>
@@ -9342,7 +9347,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>45</v>
@@ -9364,7 +9369,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <f>EDATE(A321,1)</f>
         <v>43070</v>
@@ -9391,7 +9396,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>48</v>
@@ -9413,7 +9418,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>48</v>
@@ -9435,7 +9440,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>136</v>
@@ -9457,7 +9462,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>45</v>
@@ -9479,7 +9484,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="46" t="s">
         <v>44</v>
       </c>
@@ -9494,7 +9499,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="39">
         <v>43101</v>
       </c>
@@ -9514,7 +9519,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="39">
         <v>43132</v>
       </c>
@@ -9540,7 +9545,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="39">
         <v>43160</v>
       </c>
@@ -9566,7 +9571,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="39">
         <v>43191</v>
       </c>
@@ -9592,7 +9597,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="39">
         <v>43221</v>
       </c>
@@ -9618,7 +9623,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="39"/>
       <c r="B334" s="15" t="s">
         <v>47</v>
@@ -9638,7 +9643,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="39">
         <v>43252</v>
       </c>
@@ -9664,7 +9669,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="39"/>
       <c r="B336" s="15" t="s">
         <v>47</v>
@@ -9684,7 +9689,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="39">
         <v>43282</v>
       </c>
@@ -9710,7 +9715,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="39">
         <v>43313</v>
       </c>
@@ -9736,7 +9741,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="39"/>
       <c r="B339" s="20" t="s">
         <v>47</v>
@@ -9756,7 +9761,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="39">
         <v>43344</v>
       </c>
@@ -9776,7 +9781,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="39">
         <v>43374</v>
       </c>
@@ -9802,7 +9807,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="39">
         <v>43405</v>
       </c>
@@ -9822,7 +9827,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="39">
         <v>43435</v>
       </c>
@@ -9848,7 +9853,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="39"/>
       <c r="B344" s="20" t="s">
         <v>50</v>
@@ -9868,7 +9873,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="46" t="s">
         <v>49</v>
       </c>
@@ -9883,7 +9888,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="39">
         <v>43466</v>
       </c>
@@ -9909,7 +9914,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="39"/>
       <c r="B347" s="20" t="s">
         <v>52</v>
@@ -9931,7 +9936,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="39"/>
       <c r="B348" s="20" t="s">
         <v>53</v>
@@ -9953,7 +9958,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="39">
         <v>43497</v>
       </c>
@@ -9973,7 +9978,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="39">
         <v>43525</v>
       </c>
@@ -9999,7 +10004,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="39">
         <v>43556</v>
       </c>
@@ -10025,7 +10030,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="39">
         <v>43586</v>
       </c>
@@ -10045,7 +10050,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="39">
         <v>43617</v>
       </c>
@@ -10071,7 +10076,7 @@
         <v>43622</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="39"/>
       <c r="B354" s="20" t="s">
         <v>47</v>
@@ -10091,7 +10096,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="39"/>
       <c r="B355" s="20" t="s">
         <v>47</v>
@@ -10111,7 +10116,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="39">
         <v>43647</v>
       </c>
@@ -10137,7 +10142,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="39">
         <v>43678</v>
       </c>
@@ -10163,7 +10168,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="39">
         <v>43709</v>
       </c>
@@ -10189,7 +10194,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="39"/>
       <c r="B359" s="20" t="s">
         <v>45</v>
@@ -10211,7 +10216,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="39">
         <v>43739</v>
       </c>
@@ -10237,7 +10242,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="39"/>
       <c r="B361" s="20" t="s">
         <v>45</v>
@@ -10259,7 +10264,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39">
         <v>43770</v>
       </c>
@@ -10285,7 +10290,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="39">
         <v>43800</v>
       </c>
@@ -10311,7 +10316,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="46" t="s">
         <v>54</v>
       </c>
@@ -10326,7 +10331,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="39">
         <v>43831</v>
       </c>
@@ -10352,7 +10357,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="39"/>
       <c r="B366" s="20" t="s">
         <v>46</v>
@@ -10374,7 +10379,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="39">
         <v>43862</v>
       </c>
@@ -10400,7 +10405,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="39">
         <v>43891</v>
       </c>
@@ -10420,7 +10425,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="39">
         <v>43922</v>
       </c>
@@ -10440,7 +10445,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="39">
         <v>43952</v>
       </c>
@@ -10460,7 +10465,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="39">
         <v>43983</v>
       </c>
@@ -10480,7 +10485,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="39">
         <v>44013</v>
       </c>
@@ -10504,7 +10509,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="39"/>
       <c r="B373" s="20" t="s">
         <v>45</v>
@@ -10526,7 +10531,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="39">
         <v>44044</v>
       </c>
@@ -10546,7 +10551,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="39">
         <v>44075</v>
       </c>
@@ -10572,7 +10577,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="39">
         <v>44105</v>
       </c>
@@ -10592,7 +10597,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="39">
         <v>44136</v>
       </c>
@@ -10612,7 +10617,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="39">
         <v>44166</v>
       </c>
@@ -10636,7 +10641,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="39"/>
       <c r="B379" s="20" t="s">
         <v>51</v>
@@ -10658,7 +10663,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="46" t="s">
         <v>55</v>
       </c>
@@ -10676,7 +10681,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="39">
         <v>44197</v>
       </c>
@@ -10702,7 +10707,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="39">
         <v>44228</v>
       </c>
@@ -10722,7 +10727,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="39">
         <v>44256</v>
       </c>
@@ -10748,7 +10753,7 @@
         <v>44472</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="39">
         <v>44287</v>
       </c>
@@ -10768,7 +10773,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39">
         <v>44317</v>
       </c>
@@ -10788,7 +10793,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="39">
         <v>44348</v>
       </c>
@@ -10814,7 +10819,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="39"/>
       <c r="B387" s="20" t="s">
         <v>47</v>
@@ -10834,7 +10839,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="39">
         <v>44378</v>
       </c>
@@ -10860,7 +10865,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="39">
         <v>44409</v>
       </c>
@@ -10880,7 +10885,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39">
         <v>44440</v>
       </c>
@@ -10900,7 +10905,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="39">
         <v>44470</v>
       </c>
@@ -10926,7 +10931,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="39">
         <v>44501</v>
       </c>
@@ -10946,7 +10951,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="39">
         <v>44531</v>
       </c>
@@ -10972,7 +10977,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="46" t="s">
         <v>56</v>
       </c>
@@ -10987,7 +10992,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="39">
         <v>44562</v>
       </c>
@@ -11007,7 +11012,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="39">
         <v>44593</v>
       </c>
@@ -11027,7 +11032,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="39">
         <v>44621</v>
       </c>
@@ -11047,7 +11052,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="39">
         <v>44652</v>
       </c>
@@ -11073,7 +11078,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="39">
         <v>44682</v>
       </c>
@@ -11097,7 +11102,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="39"/>
       <c r="B400" s="20" t="s">
         <v>47</v>
@@ -11117,7 +11122,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="39"/>
       <c r="B401" s="20" t="s">
         <v>135</v>
@@ -11137,7 +11142,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="47"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="39">
         <v>44713</v>
       </c>
@@ -11161,7 +11166,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="39">
         <v>44743</v>
       </c>
@@ -11185,7 +11190,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="39">
         <v>44774</v>
       </c>
@@ -11211,7 +11216,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="39"/>
       <c r="B405" s="20" t="s">
         <v>318</v>
@@ -11231,7 +11236,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="39">
         <v>44805</v>
       </c>
@@ -11257,7 +11262,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="39"/>
       <c r="B407" s="20" t="s">
         <v>316</v>
@@ -11277,7 +11282,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="47"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="39">
         <v>44835</v>
       </c>
@@ -11301,7 +11306,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="39"/>
       <c r="B409" s="20" t="s">
         <v>45</v>
@@ -11323,7 +11328,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="39"/>
       <c r="B410" s="20" t="s">
         <v>45</v>
@@ -11345,7 +11350,7 @@
         <v>44860</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="39"/>
       <c r="B411" s="20" t="s">
         <v>314</v>
@@ -11365,7 +11370,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="47"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="39">
         <v>44866</v>
       </c>
@@ -11389,7 +11394,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="39">
         <v>44896</v>
       </c>
@@ -11415,7 +11420,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="39"/>
       <c r="B414" s="20" t="s">
         <v>313</v>
@@ -11435,7 +11440,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="46" t="s">
         <v>57</v>
       </c>
@@ -11453,7 +11458,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="39">
         <v>44927</v>
       </c>
@@ -11477,7 +11482,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="39"/>
       <c r="B417" s="20" t="s">
         <v>45</v>
@@ -11499,7 +11504,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="39"/>
       <c r="B418" s="20" t="s">
         <v>69</v>
@@ -11519,7 +11524,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="47"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="39">
         <v>44958</v>
       </c>
@@ -11545,7 +11550,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="39"/>
       <c r="B420" s="20" t="s">
         <v>48</v>
@@ -11567,7 +11572,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="39"/>
       <c r="B421" s="20" t="s">
         <v>135</v>
@@ -11587,7 +11592,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="39">
         <v>44986</v>
       </c>
@@ -11613,7 +11618,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="39"/>
       <c r="B423" s="20" t="s">
         <v>333</v>
@@ -11635,7 +11640,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39"/>
       <c r="B424" s="20" t="s">
         <v>335</v>
@@ -11655,7 +11660,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="39">
         <v>45017</v>
       </c>
@@ -11681,7 +11686,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="39">
         <v>45047</v>
       </c>
@@ -11707,7 +11712,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="39">
         <v>45078</v>
       </c>
@@ -11733,7 +11738,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="39"/>
       <c r="B428" s="20" t="s">
         <v>48</v>
@@ -11755,7 +11760,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="39"/>
       <c r="B429" s="20" t="s">
         <v>47</v>
@@ -11775,7 +11780,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="39">
         <v>45108</v>
       </c>
@@ -11801,7 +11806,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="39"/>
       <c r="B431" s="20" t="s">
         <v>48</v>
@@ -11823,7 +11828,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="39">
         <v>45139</v>
       </c>
@@ -11849,7 +11854,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="39">
         <v>45170</v>
       </c>
@@ -11875,7 +11880,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="39"/>
       <c r="B434" s="20" t="s">
         <v>48</v>
@@ -11897,7 +11902,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="39"/>
       <c r="B435" s="20" t="s">
         <v>53</v>
@@ -11919,7 +11924,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="39"/>
       <c r="B436" s="20" t="s">
         <v>142</v>
@@ -11939,7 +11944,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="39">
         <v>45200</v>
       </c>
@@ -11965,7 +11970,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="39"/>
       <c r="B438" s="20" t="s">
         <v>332</v>
@@ -11985,7 +11990,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="47"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39">
         <v>45231</v>
       </c>
@@ -12011,7 +12016,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="39"/>
       <c r="B440" s="20" t="s">
         <v>331</v>
@@ -12031,7 +12036,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="39">
         <v>45261</v>
       </c>
@@ -12055,7 +12060,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="39"/>
       <c r="B442" s="20" t="s">
         <v>45</v>
@@ -12077,7 +12082,7 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="39"/>
       <c r="B443" s="20" t="s">
         <v>48</v>
@@ -12099,7 +12104,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="46" t="s">
         <v>327</v>
       </c>
@@ -12117,7 +12122,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="47"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39">
         <v>45292</v>
       </c>
@@ -12143,11 +12148,13 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="39">
         <v>45323</v>
       </c>
-      <c r="B446" s="20"/>
+      <c r="B446" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C446" s="13"/>
       <c r="D446" s="38"/>
       <c r="E446" s="9"/>
@@ -12156,16 +12163,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H446" s="38"/>
+      <c r="H446" s="38">
+        <v>2</v>
+      </c>
       <c r="I446" s="9"/>
       <c r="J446" s="11"/>
-      <c r="K446" s="20"/>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A447" s="39">
-        <v>45352</v>
-      </c>
-      <c r="B447" s="20"/>
+      <c r="K446" s="20" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A447" s="39"/>
+      <c r="B447" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C447" s="13"/>
       <c r="D447" s="38"/>
       <c r="E447" s="9"/>
@@ -12174,14 +12185,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H447" s="38"/>
+      <c r="H447" s="38">
+        <v>1</v>
+      </c>
       <c r="I447" s="9"/>
-      <c r="J447" s="11"/>
-      <c r="K447" s="20"/>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J447" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="K447" s="47">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -12197,9 +12214,9 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -12215,9 +12232,9 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -12233,9 +12250,9 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -12251,9 +12268,9 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -12269,9 +12286,9 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -12287,9 +12304,9 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -12305,9 +12322,9 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -12323,9 +12340,9 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -12341,9 +12358,9 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -12359,9 +12376,9 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -12377,9 +12394,9 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -12395,9 +12412,9 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -12413,9 +12430,9 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -12431,9 +12448,9 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -12449,9 +12466,9 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -12467,9 +12484,9 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -12485,9 +12502,9 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -12503,9 +12520,9 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -12521,9 +12538,9 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -12539,9 +12556,9 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -12557,9 +12574,9 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -12575,9 +12592,9 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -12593,9 +12610,9 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -12611,9 +12628,9 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -12629,9 +12646,9 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -12647,9 +12664,9 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -12665,9 +12682,9 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -12683,9 +12700,9 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12701,9 +12718,9 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12719,9 +12736,9 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12737,9 +12754,9 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="39">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12755,16 +12772,16 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="39">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
       <c r="D480" s="38"/>
       <c r="E480" s="9"/>
-      <c r="F480" s="15"/>
-      <c r="G480" s="40" t="str">
+      <c r="F480" s="20"/>
+      <c r="G480" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -12773,16 +12790,16 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="39">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
       <c r="D481" s="38"/>
       <c r="E481" s="9"/>
-      <c r="F481" s="20"/>
-      <c r="G481" s="13" t="str">
+      <c r="F481" s="15"/>
+      <c r="G481" s="40" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -12791,9 +12808,9 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="39">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12809,9 +12826,9 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="39">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12827,9 +12844,9 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="39">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12845,9 +12862,9 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="39">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12863,8 +12880,10 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A486" s="39"/>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A486" s="39">
+        <v>46508</v>
+      </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
       <c r="D486" s="38"/>
@@ -12874,10 +12893,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H486" s="41"/>
+      <c r="H486" s="38"/>
       <c r="I486" s="9"/>
-      <c r="J486" s="12"/>
-      <c r="K486" s="15"/>
+      <c r="J486" s="11"/>
+      <c r="K486" s="20"/>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A487" s="39"/>
+      <c r="B487" s="20"/>
+      <c r="C487" s="13"/>
+      <c r="D487" s="38"/>
+      <c r="E487" s="9"/>
+      <c r="F487" s="20"/>
+      <c r="G487" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H487" s="41"/>
+      <c r="I487" s="9"/>
+      <c r="J487" s="12"/>
+      <c r="K487" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12894,10 +12929,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12920,28 +12955,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -12954,7 +12989,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12983,7 +13018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -13011,17 +13046,17 @@
         <v>0.2919999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -13042,7 +13077,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -13069,7 +13104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -13095,7 +13130,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -13121,7 +13156,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -13147,7 +13182,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -13173,7 +13208,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -13199,7 +13234,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -13225,7 +13260,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -13251,7 +13286,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -13271,7 +13306,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -13291,7 +13326,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -13311,7 +13346,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -13332,7 +13367,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -13353,7 +13388,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -13374,7 +13409,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -13395,7 +13430,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -13416,7 +13451,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -13437,7 +13472,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -13458,7 +13493,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -13479,7 +13514,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -13500,7 +13535,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -13521,7 +13556,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -13542,7 +13577,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -13563,7 +13598,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -13584,7 +13619,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -13605,7 +13640,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -13626,7 +13661,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -13647,7 +13682,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -13668,7 +13703,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -13689,7 +13724,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -13710,7 +13745,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -13731,7 +13766,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -13740,7 +13775,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -13749,7 +13784,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -13758,7 +13793,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -13767,7 +13802,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -13776,7 +13811,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -13785,7 +13820,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -13794,7 +13829,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -13803,7 +13838,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -13812,7 +13847,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -13821,7 +13856,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -13830,7 +13865,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -13839,7 +13874,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -13848,7 +13883,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -13857,7 +13892,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -13866,7 +13901,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -13875,7 +13910,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -13884,7 +13919,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -13893,7 +13928,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -13902,7 +13937,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -13911,7 +13946,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -13920,7 +13955,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -13929,7 +13964,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -13938,7 +13973,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -13947,7 +13982,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -13956,7 +13991,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -13965,7 +14000,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -13974,7 +14009,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -13983,7 +14018,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -13992,7 +14027,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
